--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNICIPALIDAD PALACIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67EDCA9-91A2-4BA4-AD37-829B8B233773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122CEBA2-D4B4-49C2-9E09-02E70903F47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
@@ -438,12 +438,6 @@
     <t>Cinta laminada</t>
   </si>
   <si>
-    <t>CONECTOR JACK RJ 45 CAT 6</t>
-  </si>
-  <si>
-    <t>199200050075</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.6. 2  2. 1  4	</t>
   </si>
   <si>
@@ -469,6 +463,12 @@
   </si>
   <si>
     <t>unid</t>
+  </si>
+  <si>
+    <t>CONECTOR JACK RJ 45 CAT 6A</t>
+  </si>
+  <si>
+    <t>199200050413</t>
   </si>
 </sst>
 </file>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
   <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E17" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3811,13 +3811,13 @@
         <v>150</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K36" s="29">
         <v>35</v>
@@ -3849,13 +3849,13 @@
         <v>2</v>
       </c>
       <c r="H37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="J37" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K37" s="29">
         <v>85</v>
@@ -3887,13 +3887,13 @@
         <v>20</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K38" s="29">
         <v>48</v>
@@ -3913,10 +3913,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F39" s="8">
         <v>500</v>
@@ -3925,13 +3925,13 @@
         <v>500</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K39" s="29">
         <v>0.1</v>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -2,28 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122CEBA2-D4B4-49C2-9E09-02E70903F47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E85BFC-3A50-4CDC-8280-DE945541771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja3" sheetId="4" r:id="rId1"/>
-    <sheet name="PEDIDOS" sheetId="1" r:id="rId2"/>
+    <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
     <sheet name="MONTO PEDIDO" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PEDIDOS!$A$4:$M$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PEDIDOS!$A$1:$M$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEDIDOS!$A$4:$M$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PEDIDOS!$A$1:$M$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
   <si>
     <t>ITEM</t>
   </si>
@@ -632,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -737,11 +737,90 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -826,7 +905,38 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ITEM SIGA" numFmtId="49">
-      <sharedItems/>
+      <sharedItems count="30">
+        <s v="281600450112"/>
+        <s v="199100100077"/>
+        <s v="199100100078"/>
+        <s v="199100100743"/>
+        <s v="199100100359"/>
+        <s v="405700060007"/>
+        <s v="405700060264"/>
+        <s v="261000011918"/>
+        <s v="281600450987"/>
+        <s v="281600211024"/>
+        <s v="285000100005"/>
+        <s v="285000050119"/>
+        <s v="285000050121"/>
+        <s v="285000050120"/>
+        <s v="746444910051"/>
+        <s v="952294400003"/>
+        <s v="199200050216"/>
+        <s v="199200050403"/>
+        <s v="112275740001"/>
+        <s v="112248020001"/>
+        <s v="462200500033"/>
+        <s v="952267420001"/>
+        <s v="952281170076"/>
+        <s v="767500610008"/>
+        <s v="952260580021"/>
+        <s v="952260580036"/>
+        <s v="952215610010"/>
+        <s v="952282870040"/>
+        <s v="952282870035"/>
+        <s v="952275360001"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
       <sharedItems count="31">
@@ -892,7 +1002,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <s v="281600450112"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="750"/>
     <n v="1500"/>
@@ -907,7 +1017,7 @@
     <n v="25"/>
     <n v="25"/>
     <x v="0"/>
-    <s v="199100100077"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="75"/>
     <n v="1875"/>
@@ -922,7 +1032,7 @@
     <n v="25"/>
     <n v="25"/>
     <x v="0"/>
-    <s v="199100100078"/>
+    <x v="2"/>
     <x v="2"/>
     <n v="75"/>
     <n v="1875"/>
@@ -937,7 +1047,7 @@
     <n v="1"/>
     <n v="1"/>
     <x v="0"/>
-    <s v="199100100743"/>
+    <x v="3"/>
     <x v="3"/>
     <n v="3200"/>
     <n v="3200"/>
@@ -952,7 +1062,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <s v="199100100359"/>
+    <x v="4"/>
     <x v="4"/>
     <n v="2500"/>
     <n v="5000"/>
@@ -967,7 +1077,7 @@
     <n v="15"/>
     <n v="15"/>
     <x v="0"/>
-    <s v="281600450112"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="250"/>
     <n v="3750"/>
@@ -982,7 +1092,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <s v="405700060007"/>
+    <x v="5"/>
     <x v="6"/>
     <n v="45"/>
     <n v="90"/>
@@ -997,7 +1107,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <s v="405700060264"/>
+    <x v="6"/>
     <x v="7"/>
     <n v="12"/>
     <n v="24"/>
@@ -1012,7 +1122,7 @@
     <n v="3"/>
     <n v="3"/>
     <x v="0"/>
-    <s v="261000011918"/>
+    <x v="7"/>
     <x v="8"/>
     <n v="750"/>
     <n v="2250"/>
@@ -1027,7 +1137,7 @@
     <n v="6"/>
     <n v="6"/>
     <x v="0"/>
-    <s v="281600450987"/>
+    <x v="8"/>
     <x v="9"/>
     <n v="250"/>
     <n v="1500"/>
@@ -1042,7 +1152,7 @@
     <n v="3"/>
     <n v="3"/>
     <x v="0"/>
-    <s v="281600211024"/>
+    <x v="9"/>
     <x v="10"/>
     <n v="720"/>
     <n v="2160"/>
@@ -1057,7 +1167,7 @@
     <n v="24"/>
     <n v="0"/>
     <x v="0"/>
-    <s v="285000100005"/>
+    <x v="10"/>
     <x v="11"/>
     <n v="35"/>
     <n v="840"/>
@@ -1072,7 +1182,7 @@
     <n v="12"/>
     <n v="12"/>
     <x v="0"/>
-    <s v="285000050119"/>
+    <x v="11"/>
     <x v="12"/>
     <n v="48"/>
     <n v="576"/>
@@ -1087,7 +1197,7 @@
     <n v="26"/>
     <n v="0"/>
     <x v="0"/>
-    <s v="285000050121"/>
+    <x v="12"/>
     <x v="13"/>
     <n v="75"/>
     <n v="1950"/>
@@ -1102,7 +1212,7 @@
     <n v="26"/>
     <n v="0"/>
     <x v="0"/>
-    <s v="285000050120"/>
+    <x v="13"/>
     <x v="14"/>
     <n v="75"/>
     <n v="1950"/>
@@ -1117,7 +1227,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="1"/>
-    <s v="746444910051"/>
+    <x v="14"/>
     <x v="15"/>
     <n v="8200"/>
     <n v="57400"/>
@@ -1132,7 +1242,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="2"/>
-    <s v="952294400003"/>
+    <x v="15"/>
     <x v="16"/>
     <n v="2400"/>
     <n v="16800"/>
@@ -1147,7 +1257,7 @@
     <n v="24"/>
     <n v="12"/>
     <x v="0"/>
-    <s v="199200050216"/>
+    <x v="16"/>
     <x v="17"/>
     <n v="450"/>
     <n v="10800"/>
@@ -1162,7 +1272,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="0"/>
-    <s v="199200050403"/>
+    <x v="17"/>
     <x v="18"/>
     <n v="740"/>
     <n v="5180"/>
@@ -1177,7 +1287,7 @@
     <n v="14"/>
     <n v="8"/>
     <x v="3"/>
-    <s v="112275740001"/>
+    <x v="18"/>
     <x v="19"/>
     <n v="780"/>
     <n v="10920"/>
@@ -1192,7 +1302,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="3"/>
-    <s v="112248020001"/>
+    <x v="19"/>
     <x v="20"/>
     <n v="2100"/>
     <n v="14700"/>
@@ -1207,7 +1317,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="4"/>
-    <s v="462200500033"/>
+    <x v="20"/>
     <x v="21"/>
     <n v="7100"/>
     <n v="49700"/>
@@ -1222,7 +1332,7 @@
     <n v="43"/>
     <n v="26"/>
     <x v="5"/>
-    <s v="952267420001"/>
+    <x v="21"/>
     <x v="22"/>
     <n v="3100"/>
     <n v="133300"/>
@@ -1237,7 +1347,7 @@
     <n v="8"/>
     <n v="5"/>
     <x v="5"/>
-    <s v="952281170076"/>
+    <x v="22"/>
     <x v="23"/>
     <n v="19800"/>
     <n v="158400"/>
@@ -1252,7 +1362,7 @@
     <n v="16"/>
     <n v="10"/>
     <x v="6"/>
-    <s v="767500610008"/>
+    <x v="23"/>
     <x v="24"/>
     <n v="6200"/>
     <n v="99200"/>
@@ -1267,7 +1377,7 @@
     <n v="6"/>
     <n v="0"/>
     <x v="2"/>
-    <s v="952260580021"/>
+    <x v="24"/>
     <x v="25"/>
     <n v="6900"/>
     <n v="0"/>
@@ -1282,7 +1392,7 @@
     <n v="2"/>
     <n v="0"/>
     <x v="5"/>
-    <s v="952260580036"/>
+    <x v="25"/>
     <x v="26"/>
     <n v="7500"/>
     <n v="0"/>
@@ -1297,7 +1407,7 @@
     <n v="1"/>
     <n v="0"/>
     <x v="5"/>
-    <s v="952215610010"/>
+    <x v="26"/>
     <x v="27"/>
     <n v="8500"/>
     <n v="0"/>
@@ -1312,7 +1422,7 @@
     <n v="13"/>
     <n v="0"/>
     <x v="5"/>
-    <s v="952282870040"/>
+    <x v="27"/>
     <x v="28"/>
     <n v="2160"/>
     <n v="0"/>
@@ -1327,7 +1437,7 @@
     <n v="23"/>
     <n v="0"/>
     <x v="5"/>
-    <s v="952282870035"/>
+    <x v="28"/>
     <x v="29"/>
     <n v="753"/>
     <n v="0"/>
@@ -1342,7 +1452,7 @@
     <n v="1"/>
     <n v="0"/>
     <x v="5"/>
-    <s v="952275360001"/>
+    <x v="29"/>
     <x v="30"/>
     <n v="39500"/>
     <n v="0"/>
@@ -1352,10 +1462,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1374,7 +1497,41 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="31">
+        <item x="19"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="21"/>
+        <item x="29"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="32">
         <item x="21"/>
@@ -1415,64 +1572,26 @@
     <pivotField numFmtId="4" showAll="0"/>
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="3">
     <field x="7"/>
     <field x="9"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="39">
+  <rowItems count="40">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
     </i>
     <i r="1">
       <x v="17"/>
     </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
@@ -1480,59 +1599,101 @@
     <i r="1">
       <x v="15"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x v="7"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
     <i r="1">
       <x v="19"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
     <i r="1">
       <x v="20"/>
     </i>
+    <i r="2">
+      <x/>
+    </i>
     <i r="1">
       <x v="21"/>
     </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
     <i r="1">
       <x v="25"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="26"/>
     </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i r="1">
       <x v="27"/>
     </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
     <i r="1">
       <x v="18"/>
     </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
     <i r="1">
       <x v="29"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
       <x v="13"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i r="1">
       <x v="30"/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
     <i r="1">
       <x/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
       <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1557,15 +1718,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+    <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="6"/>
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="8"/>
         <item x="4"/>
         <item x="5"/>
@@ -1626,7 +1787,7 @@
     <field x="0"/>
     <field x="9"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="25">
     <i>
       <x/>
     </i>
@@ -1634,6 +1795,12 @@
       <x v="20"/>
     </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
       <x v="2"/>
     </i>
     <i r="1">
@@ -1658,52 +1825,22 @@
       <x v="30"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
+      <x v="19"/>
     </i>
     <i>
       <x v="7"/>
@@ -1713,6 +1850,15 @@
     </i>
     <i r="1">
       <x v="25"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
     </i>
     <i t="grand">
       <x/>
@@ -1738,7 +1884,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="5">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1748,7 +1894,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1758,7 +1904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1767,7 +1913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1776,7 +1922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1785,7 +1931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1796,17 +1942,6 @@
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="0" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="2">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2114,354 +2249,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A3:B42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="148" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4">
-        <v>32160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24">
-        <v>179600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27">
-        <v>80600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35">
-        <v>14640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37">
-        <v>6240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38">
-        <v>28400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39">
-        <v>28400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40">
-        <v>32800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41">
-        <v>32800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42">
-        <v>359200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,7 +2316,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>121</v>
       </c>
@@ -2566,7 +2359,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -2607,7 +2400,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>121</v>
       </c>
@@ -2648,7 +2441,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>121</v>
       </c>
@@ -2689,7 +2482,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>121</v>
       </c>
@@ -2730,7 +2523,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>121</v>
       </c>
@@ -2771,7 +2564,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>121</v>
       </c>
@@ -2812,7 +2605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>121</v>
       </c>
@@ -2853,7 +2646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>121</v>
       </c>
@@ -2894,7 +2687,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>121</v>
       </c>
@@ -2935,7 +2728,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>121</v>
       </c>
@@ -2976,7 +2769,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>121</v>
       </c>
@@ -3017,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>121</v>
       </c>
@@ -3058,7 +2851,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>121</v>
       </c>
@@ -3099,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>121</v>
       </c>
@@ -3943,10 +3736,378 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:M35" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
+  <autoFilter ref="A4:M39" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ACCESS POINT"/>
+        <filter val="CENTRAL TELEFONICA"/>
+        <filter val="GABINETES"/>
+        <filter val="INSUMOS REDES"/>
+        <filter val="ROUTER"/>
+        <filter val="SISTEMA DSP"/>
+        <filter val="SUB FERRITA"/>
+        <filter val="SWITCH"/>
+        <filter val="TELEFONO IP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="78.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="44">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="44">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="44">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="44">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="44">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="44">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="44">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="44">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="44">
+        <v>179600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="44">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="44">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="44">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="44">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="44">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="44">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="44">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="44">
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="44">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="44">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="44">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="44">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="44">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="44">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="44">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="44">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="44">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="44">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="44">
+        <v>335400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3955,15 +4116,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:D33"/>
+  <dimension ref="A3:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="140.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="13" bestFit="1" customWidth="1"/>
@@ -3987,7 +4148,7 @@
       <c r="A4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="45">
         <v>26</v>
       </c>
       <c r="C4" s="13">
@@ -4001,7 +4162,7 @@
       <c r="A5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="45">
         <v>26</v>
       </c>
       <c r="C5" s="13">
@@ -4013,279 +4174,279 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="35">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="45">
+        <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>21770</v>
+        <v>8500</v>
       </c>
       <c r="D6" s="13">
-        <v>93800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="35">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="B7" s="45">
+        <v>0</v>
       </c>
       <c r="C7" s="13">
-        <v>7100</v>
+        <v>8500</v>
       </c>
       <c r="D7" s="13">
-        <v>28400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="35">
-        <v>4</v>
+      <c r="A8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="45">
+        <v>40</v>
       </c>
       <c r="C8" s="13">
-        <v>2100</v>
+        <v>21770</v>
       </c>
       <c r="D8" s="13">
-        <v>8400</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="35">
+        <v>65</v>
+      </c>
+      <c r="B9" s="45">
         <v>4</v>
       </c>
       <c r="C9" s="13">
-        <v>8200</v>
+        <v>7100</v>
       </c>
       <c r="D9" s="13">
-        <v>32800</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="35">
+        <v>62</v>
+      </c>
+      <c r="B10" s="45">
         <v>4</v>
       </c>
       <c r="C10" s="13">
-        <v>740</v>
+        <v>2100</v>
       </c>
       <c r="D10" s="13">
-        <v>2960</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="35">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="45">
+        <v>4</v>
       </c>
       <c r="C11" s="13">
-        <v>450</v>
+        <v>8200</v>
       </c>
       <c r="D11" s="13">
-        <v>5400</v>
+        <v>32800</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="35">
+        <v>60</v>
+      </c>
+      <c r="B12" s="45">
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>2400</v>
+        <v>740</v>
       </c>
       <c r="D12" s="13">
-        <v>9600</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="35">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="B13" s="45">
+        <v>12</v>
       </c>
       <c r="C13" s="13">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="D13" s="13">
-        <v>6240</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="35">
-        <v>98</v>
+      <c r="A14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="45">
+        <v>4</v>
       </c>
       <c r="C14" s="13">
-        <v>8860</v>
+        <v>2400</v>
       </c>
       <c r="D14" s="13">
-        <v>23800</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="35">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="45">
+        <v>8</v>
       </c>
       <c r="C15" s="13">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="D15" s="13">
-        <v>3750</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="35">
-        <v>6</v>
+      <c r="A16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="45">
+        <v>0</v>
       </c>
       <c r="C16" s="13">
-        <v>250</v>
+        <v>39500</v>
       </c>
       <c r="D16" s="13">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="35">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="B17" s="45">
+        <v>0</v>
       </c>
       <c r="C17" s="13">
-        <v>720</v>
+        <v>39500</v>
       </c>
       <c r="D17" s="13">
-        <v>2160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="35">
-        <v>2</v>
+      <c r="A18" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="45">
+        <v>0</v>
       </c>
       <c r="C18" s="13">
-        <v>750</v>
+        <v>6900</v>
       </c>
       <c r="D18" s="13">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="35">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="B19" s="45">
+        <v>0</v>
       </c>
       <c r="C19" s="13">
-        <v>3200</v>
+        <v>6900</v>
       </c>
       <c r="D19" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="35">
-        <v>3</v>
+      <c r="A20" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="45">
+        <v>0</v>
       </c>
       <c r="C20" s="13">
-        <v>750</v>
+        <v>7500</v>
       </c>
       <c r="D20" s="13">
-        <v>2250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="35">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="B21" s="45">
+        <v>0</v>
       </c>
       <c r="C21" s="13">
-        <v>75</v>
+        <v>7500</v>
       </c>
       <c r="D21" s="13">
-        <v>1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="35">
-        <v>25</v>
+      <c r="A22" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="45">
+        <v>15</v>
       </c>
       <c r="C22" s="13">
-        <v>75</v>
+        <v>26000</v>
       </c>
       <c r="D22" s="13">
-        <v>1875</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="35">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="45">
+        <v>10</v>
       </c>
       <c r="C23" s="13">
-        <v>48</v>
+        <v>6200</v>
       </c>
       <c r="D23" s="13">
-        <v>576</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="35">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B24" s="45">
+        <v>5</v>
       </c>
       <c r="C24" s="13">
-        <v>75</v>
+        <v>19800</v>
       </c>
       <c r="D24" s="13">
-        <v>0</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="35">
+      <c r="A25" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="45">
         <v>0</v>
       </c>
       <c r="C25" s="13">
-        <v>75</v>
+        <v>2913</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -4293,118 +4454,128 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="35">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="B26" s="45">
+        <v>0</v>
       </c>
       <c r="C26" s="13">
-        <v>45</v>
+        <v>2160</v>
       </c>
       <c r="D26" s="13">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="35">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="B27" s="45">
+        <v>0</v>
       </c>
       <c r="C27" s="13">
-        <v>12</v>
+        <v>753</v>
       </c>
       <c r="D27" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="35">
-        <v>2</v>
+      <c r="A28" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="45">
+        <v>81</v>
       </c>
       <c r="C28" s="13">
-        <v>2500</v>
+        <v>116183</v>
       </c>
       <c r="D28" s="13">
-        <v>5000</v>
+        <v>335400</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="35">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
-        <v>35</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="35">
-        <v>15</v>
-      </c>
-      <c r="C30" s="13">
-        <v>26000</v>
-      </c>
-      <c r="D30" s="13">
-        <v>161000</v>
-      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="35">
-        <v>10</v>
-      </c>
-      <c r="C31" s="13">
-        <v>6200</v>
-      </c>
-      <c r="D31" s="13">
-        <v>62000</v>
-      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="35">
-        <v>5</v>
-      </c>
-      <c r="C32" s="13">
-        <v>19800</v>
-      </c>
-      <c r="D32" s="13">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="35">
-        <v>179</v>
-      </c>
-      <c r="C33" s="13">
-        <v>59730</v>
-      </c>
-      <c r="D33" s="13">
-        <v>359200</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E85BFC-3A50-4CDC-8280-DE945541771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628B031-5DA9-4750-A703-EF4AD06CA61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="MONTO PEDIDO" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEDIDOS!$A$4:$M$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PEDIDOS!$A$1:$M$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEDIDOS!$A$4:$M$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PEDIDOS!$A$1:$M$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
   <si>
     <t>ITEM</t>
   </si>
@@ -441,12 +441,6 @@
     <t xml:space="preserve">2.6. 2  2. 1  4	</t>
   </si>
   <si>
-    <t xml:space="preserve">PEINE DE PLASTICO DE 10 cm	</t>
-  </si>
-  <si>
-    <t>139000100014</t>
-  </si>
-  <si>
     <t xml:space="preserve">CINTA 6 in X 76 m PARA IMPRESORA TERMICA DE ETIQUETA	</t>
   </si>
   <si>
@@ -469,6 +463,24 @@
   </si>
   <si>
     <t>199200050413</t>
+  </si>
+  <si>
+    <t>Suma de CANT.</t>
+  </si>
+  <si>
+    <t>CINTA AISLANTE</t>
+  </si>
+  <si>
+    <t>070400190026</t>
+  </si>
+  <si>
+    <t>CINTA AISLANTE VINILICA 3/4 in X 20 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIA ORDENADORA DE PLASTICO PARA CABLES 3/4 in X 1/2 in X 10 m	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199200050525 </t>
   </si>
 </sst>
 </file>
@@ -605,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -628,11 +640,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -654,9 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,12 +775,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,9 +787,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -700,18 +796,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -728,81 +813,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -839,6 +908,284 @@
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -857,7 +1204,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45335.393908101854" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45343.441337268516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M35" sheet="PEDIDOS"/>
   </cacheSource>
@@ -905,38 +1252,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ITEM SIGA" numFmtId="49">
-      <sharedItems count="30">
-        <s v="281600450112"/>
-        <s v="199100100077"/>
-        <s v="199100100078"/>
-        <s v="199100100743"/>
-        <s v="199100100359"/>
-        <s v="405700060007"/>
-        <s v="405700060264"/>
-        <s v="261000011918"/>
-        <s v="281600450987"/>
-        <s v="281600211024"/>
-        <s v="285000100005"/>
-        <s v="285000050119"/>
-        <s v="285000050121"/>
-        <s v="285000050120"/>
-        <s v="746444910051"/>
-        <s v="952294400003"/>
-        <s v="199200050216"/>
-        <s v="199200050403"/>
-        <s v="112275740001"/>
-        <s v="112248020001"/>
-        <s v="462200500033"/>
-        <s v="952267420001"/>
-        <s v="952281170076"/>
-        <s v="767500610008"/>
-        <s v="952260580021"/>
-        <s v="952260580036"/>
-        <s v="952215610010"/>
-        <s v="952282870040"/>
-        <s v="952282870035"/>
-        <s v="952275360001"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
       <sharedItems count="31">
@@ -1002,7 +1318,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="281600450112"/>
     <x v="0"/>
     <n v="750"/>
     <n v="1500"/>
@@ -1017,7 +1333,7 @@
     <n v="25"/>
     <n v="25"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="199100100077"/>
     <x v="1"/>
     <n v="75"/>
     <n v="1875"/>
@@ -1032,7 +1348,7 @@
     <n v="25"/>
     <n v="25"/>
     <x v="0"/>
-    <x v="2"/>
+    <s v="199100100078"/>
     <x v="2"/>
     <n v="75"/>
     <n v="1875"/>
@@ -1047,7 +1363,7 @@
     <n v="1"/>
     <n v="1"/>
     <x v="0"/>
-    <x v="3"/>
+    <s v="199100100743"/>
     <x v="3"/>
     <n v="3200"/>
     <n v="3200"/>
@@ -1062,7 +1378,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <x v="4"/>
+    <s v="199100100359"/>
     <x v="4"/>
     <n v="2500"/>
     <n v="5000"/>
@@ -1077,7 +1393,7 @@
     <n v="15"/>
     <n v="15"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="281600450112"/>
     <x v="5"/>
     <n v="250"/>
     <n v="3750"/>
@@ -1092,7 +1408,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <x v="5"/>
+    <s v="405700060007"/>
     <x v="6"/>
     <n v="45"/>
     <n v="90"/>
@@ -1107,7 +1423,7 @@
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
-    <x v="6"/>
+    <s v="405700060264"/>
     <x v="7"/>
     <n v="12"/>
     <n v="24"/>
@@ -1122,7 +1438,7 @@
     <n v="3"/>
     <n v="3"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="261000011918"/>
     <x v="8"/>
     <n v="750"/>
     <n v="2250"/>
@@ -1137,7 +1453,7 @@
     <n v="6"/>
     <n v="6"/>
     <x v="0"/>
-    <x v="8"/>
+    <s v="281600450987"/>
     <x v="9"/>
     <n v="250"/>
     <n v="1500"/>
@@ -1152,7 +1468,7 @@
     <n v="3"/>
     <n v="3"/>
     <x v="0"/>
-    <x v="9"/>
+    <s v="281600211024"/>
     <x v="10"/>
     <n v="720"/>
     <n v="2160"/>
@@ -1167,7 +1483,7 @@
     <n v="24"/>
     <n v="0"/>
     <x v="0"/>
-    <x v="10"/>
+    <s v="285000100005"/>
     <x v="11"/>
     <n v="35"/>
     <n v="840"/>
@@ -1182,7 +1498,7 @@
     <n v="12"/>
     <n v="12"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="285000050119"/>
     <x v="12"/>
     <n v="48"/>
     <n v="576"/>
@@ -1197,7 +1513,7 @@
     <n v="26"/>
     <n v="0"/>
     <x v="0"/>
-    <x v="12"/>
+    <s v="285000050121"/>
     <x v="13"/>
     <n v="75"/>
     <n v="1950"/>
@@ -1212,7 +1528,7 @@
     <n v="26"/>
     <n v="0"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="285000050120"/>
     <x v="14"/>
     <n v="75"/>
     <n v="1950"/>
@@ -1227,7 +1543,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="1"/>
-    <x v="14"/>
+    <s v="746444910051"/>
     <x v="15"/>
     <n v="8200"/>
     <n v="57400"/>
@@ -1242,7 +1558,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="2"/>
-    <x v="15"/>
+    <s v="952294400003"/>
     <x v="16"/>
     <n v="2400"/>
     <n v="16800"/>
@@ -1257,7 +1573,7 @@
     <n v="24"/>
     <n v="12"/>
     <x v="0"/>
-    <x v="16"/>
+    <s v="199200050216"/>
     <x v="17"/>
     <n v="450"/>
     <n v="10800"/>
@@ -1272,7 +1588,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="199200050403"/>
     <x v="18"/>
     <n v="740"/>
     <n v="5180"/>
@@ -1287,7 +1603,7 @@
     <n v="14"/>
     <n v="8"/>
     <x v="3"/>
-    <x v="18"/>
+    <s v="112275740001"/>
     <x v="19"/>
     <n v="780"/>
     <n v="10920"/>
@@ -1302,7 +1618,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="3"/>
-    <x v="19"/>
+    <s v="112248020001"/>
     <x v="20"/>
     <n v="2100"/>
     <n v="14700"/>
@@ -1317,7 +1633,7 @@
     <n v="7"/>
     <n v="4"/>
     <x v="4"/>
-    <x v="20"/>
+    <s v="462200500033"/>
     <x v="21"/>
     <n v="7100"/>
     <n v="49700"/>
@@ -1332,7 +1648,7 @@
     <n v="43"/>
     <n v="26"/>
     <x v="5"/>
-    <x v="21"/>
+    <s v="952267420001"/>
     <x v="22"/>
     <n v="3100"/>
     <n v="133300"/>
@@ -1347,7 +1663,7 @@
     <n v="8"/>
     <n v="5"/>
     <x v="5"/>
-    <x v="22"/>
+    <s v="952281170076"/>
     <x v="23"/>
     <n v="19800"/>
     <n v="158400"/>
@@ -1362,7 +1678,7 @@
     <n v="16"/>
     <n v="10"/>
     <x v="6"/>
-    <x v="23"/>
+    <s v="767500610008"/>
     <x v="24"/>
     <n v="6200"/>
     <n v="99200"/>
@@ -1377,7 +1693,7 @@
     <n v="6"/>
     <n v="0"/>
     <x v="2"/>
-    <x v="24"/>
+    <s v="952260580021"/>
     <x v="25"/>
     <n v="6900"/>
     <n v="0"/>
@@ -1392,7 +1708,7 @@
     <n v="2"/>
     <n v="0"/>
     <x v="5"/>
-    <x v="25"/>
+    <s v="952260580036"/>
     <x v="26"/>
     <n v="7500"/>
     <n v="0"/>
@@ -1407,7 +1723,7 @@
     <n v="1"/>
     <n v="0"/>
     <x v="5"/>
-    <x v="26"/>
+    <s v="952215610010"/>
     <x v="27"/>
     <n v="8500"/>
     <n v="0"/>
@@ -1422,7 +1738,7 @@
     <n v="13"/>
     <n v="0"/>
     <x v="5"/>
-    <x v="27"/>
+    <s v="952282870040"/>
     <x v="28"/>
     <n v="2160"/>
     <n v="0"/>
@@ -1437,7 +1753,7 @@
     <n v="23"/>
     <n v="0"/>
     <x v="5"/>
-    <x v="28"/>
+    <s v="952282870035"/>
     <x v="29"/>
     <n v="753"/>
     <n v="0"/>
@@ -1452,7 +1768,7 @@
     <n v="1"/>
     <n v="0"/>
     <x v="5"/>
-    <x v="29"/>
+    <s v="952275360001"/>
     <x v="30"/>
     <n v="39500"/>
     <n v="0"/>
@@ -1462,8 +1778,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -1483,7 +1799,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
@@ -1497,41 +1813,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="31">
-        <item x="19"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="21"/>
-        <item x="29"/>
-        <item x="22"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="32">
         <item x="21"/>
@@ -1699,11 +1981,20 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Suma de CANT." fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1718,7 +2009,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -1884,7 +2175,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="29">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -1894,7 +2185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1904,7 +2195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1913,7 +2204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1922,7 +2213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1931,7 +2222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1951,6 +2242,30 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A4:M40" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="12">
+      <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2250,80 +2565,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:M39"/>
+  <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="7"/>
     <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5546875" style="7"/>
-    <col min="8" max="8" width="14.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="7"/>
+    <col min="7" max="7" width="15.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="74.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="13"/>
-    <col min="12" max="12" width="18.77734375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="12"/>
+    <col min="12" max="12" width="18.77734375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>497</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2341,30 +2656,30 @@
       <c r="H5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="21">
         <v>750</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="21">
         <f>F5*K5</f>
         <v>1500</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="36">
         <f>K5*G5</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="17">
+      <c r="B6" s="11"/>
+      <c r="C6" s="14">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2382,30 +2697,30 @@
       <c r="H6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="21">
         <v>75</v>
       </c>
-      <c r="L6" s="29">
-        <f t="shared" ref="L6:L29" si="0">F6*K6</f>
+      <c r="L6" s="21">
+        <f t="shared" ref="L6:L40" si="0">F6*K6</f>
         <v>1875</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="36">
         <f t="shared" ref="M6:M39" si="1">K6*G6</f>
         <v>1875</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="17">
+      <c r="B7" s="11"/>
+      <c r="C7" s="14">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -2423,30 +2738,30 @@
       <c r="H7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="21">
         <v>75</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="21">
         <f t="shared" si="0"/>
         <v>1875</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="36">
         <f t="shared" si="1"/>
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2464,26 +2779,26 @@
       <c r="H8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="21">
         <v>3200</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="21">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="36">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="4"/>
@@ -2505,26 +2820,26 @@
       <c r="H9" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="21">
         <v>2500</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="21">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="36">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="4"/>
@@ -2546,26 +2861,26 @@
       <c r="H10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="21">
         <v>250</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="21">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="36">
         <f t="shared" si="1"/>
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="4"/>
@@ -2587,26 +2902,26 @@
       <c r="H11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="21">
         <v>45</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="36">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B12" s="4"/>
@@ -2628,29 +2943,29 @@
       <c r="H12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="21">
         <v>12</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="36">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="5">
         <v>9</v>
       </c>
@@ -2666,29 +2981,29 @@
       <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="23">
         <v>750</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="23">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="36">
         <f t="shared" si="1"/>
         <v>2250</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="4"/>
@@ -2710,26 +3025,26 @@
       <c r="H14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="21">
         <v>250</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="21">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="36">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="4"/>
@@ -2751,26 +3066,26 @@
       <c r="H15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="21">
         <v>720</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="21">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="36">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B16" s="4"/>
@@ -2792,26 +3107,26 @@
       <c r="H16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="21">
         <v>35</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="21">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B17" s="4"/>
@@ -2833,26 +3148,26 @@
       <c r="H17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="21">
         <v>48</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="21">
         <f t="shared" si="0"/>
         <v>576</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="36">
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="4"/>
@@ -2874,26 +3189,26 @@
       <c r="H18" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="21">
         <v>75</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="21">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B19" s="4"/>
@@ -2915,26 +3230,26 @@
       <c r="H19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="21">
         <v>75</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="21">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="4"/>
@@ -2956,26 +3271,26 @@
       <c r="H20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="21">
         <v>8200</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="21">
         <f t="shared" si="0"/>
         <v>57400</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="36">
         <f t="shared" si="1"/>
         <v>32800</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="4"/>
@@ -2997,26 +3312,26 @@
       <c r="H21" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>56</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="21">
         <v>2400</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="21">
         <f t="shared" si="0"/>
         <v>16800</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="36">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="4"/>
@@ -3038,26 +3353,26 @@
       <c r="H22" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="21">
         <v>450</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="21">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="M22" s="30">
+      <c r="M22" s="36">
         <f t="shared" si="1"/>
         <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="4"/>
@@ -3079,26 +3394,26 @@
       <c r="H23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="21">
         <v>740</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="21">
         <f t="shared" si="0"/>
         <v>5180</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="36">
         <f t="shared" si="1"/>
         <v>2960</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="4"/>
@@ -3120,26 +3435,26 @@
       <c r="H24" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="21">
         <v>780</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="21">
         <f t="shared" si="0"/>
         <v>10920</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="36">
         <f t="shared" si="1"/>
         <v>6240</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="4"/>
@@ -3161,26 +3476,26 @@
       <c r="H25" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>63</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="21">
         <v>2100</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="21">
         <f t="shared" si="0"/>
         <v>14700</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="36">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="4"/>
@@ -3202,26 +3517,26 @@
       <c r="H26" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>64</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="21">
         <v>7100</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="21">
         <f t="shared" si="0"/>
         <v>49700</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="36">
         <f t="shared" si="1"/>
         <v>28400</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="4"/>
@@ -3243,30 +3558,30 @@
       <c r="H27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="10" t="s">
         <v>97</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="21">
         <v>3100</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="21">
         <f t="shared" si="0"/>
         <v>133300</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="36">
         <f t="shared" si="1"/>
         <v>80600</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="32" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -3284,26 +3599,26 @@
       <c r="H28" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>73</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="21">
         <v>19800</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="21">
         <f t="shared" si="0"/>
         <v>158400</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="36">
         <f t="shared" si="1"/>
         <v>99000</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="32" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="4"/>
@@ -3325,30 +3640,30 @@
       <c r="H29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="10" t="s">
         <v>75</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="21">
         <v>6200</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="21">
         <f t="shared" si="0"/>
         <v>99200</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="36">
         <f t="shared" si="1"/>
         <v>62000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -3366,29 +3681,30 @@
       <c r="H30" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>77</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="21">
         <v>6900</v>
       </c>
-      <c r="L30" s="29">
-        <v>0</v>
-      </c>
-      <c r="M30" s="30">
+      <c r="L30" s="21">
+        <f t="shared" si="0"/>
+        <v>41400</v>
+      </c>
+      <c r="M30" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -3406,29 +3722,30 @@
       <c r="H31" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="10" t="s">
         <v>81</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="21">
         <v>7500</v>
       </c>
-      <c r="L31" s="29">
-        <v>0</v>
-      </c>
-      <c r="M31" s="30">
+      <c r="L31" s="21">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="M31" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="34" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -3446,29 +3763,30 @@
       <c r="H32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="10" t="s">
         <v>84</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="21">
         <v>8500</v>
       </c>
-      <c r="L32" s="29">
-        <v>0</v>
-      </c>
-      <c r="M32" s="30">
+      <c r="L32" s="21">
+        <f t="shared" si="0"/>
+        <v>8500</v>
+      </c>
+      <c r="M32" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="34" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -3486,25 +3804,26 @@
       <c r="H33" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>91</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="21">
         <v>2160</v>
       </c>
-      <c r="L33" s="29">
-        <v>0</v>
-      </c>
-      <c r="M33" s="30">
+      <c r="L33" s="21">
+        <f t="shared" si="0"/>
+        <v>28080</v>
+      </c>
+      <c r="M33" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="34" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="4"/>
@@ -3526,29 +3845,30 @@
       <c r="H34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>89</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="21">
         <v>753</v>
       </c>
-      <c r="L34" s="29">
-        <v>0</v>
-      </c>
-      <c r="M34" s="30">
+      <c r="L34" s="21">
+        <f t="shared" si="0"/>
+        <v>17319</v>
+      </c>
+      <c r="M34" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="35" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -3566,25 +3886,26 @@
       <c r="H35" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>95</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="21">
         <v>39500</v>
       </c>
-      <c r="L35" s="29">
-        <v>0</v>
-      </c>
-      <c r="M35" s="30">
+      <c r="L35" s="21">
+        <f t="shared" si="0"/>
+        <v>39500</v>
+      </c>
+      <c r="M35" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="34" t="s">
         <v>127</v>
       </c>
       <c r="B36" s="4"/>
@@ -3606,23 +3927,26 @@
       <c r="H36" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>141</v>
+      <c r="I36" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K36" s="29">
+        <v>138</v>
+      </c>
+      <c r="K36" s="21">
         <v>35</v>
       </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30">
+      <c r="L36" s="21">
+        <f t="shared" si="0"/>
+        <v>5250</v>
+      </c>
+      <c r="M36" s="36">
         <f t="shared" si="1"/>
         <v>5250</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="34" t="s">
         <v>127</v>
       </c>
       <c r="B37" s="4"/>
@@ -3644,23 +3968,26 @@
       <c r="H37" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>133</v>
+      <c r="I37" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37" s="29">
+        <v>144</v>
+      </c>
+      <c r="K37" s="21">
         <v>85</v>
       </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30">
+      <c r="L37" s="21">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="M37" s="36">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="34" t="s">
         <v>127</v>
       </c>
       <c r="B38" s="4"/>
@@ -3682,78 +4009,113 @@
       <c r="H38" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>135</v>
+      <c r="I38" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K38" s="29">
+        <v>132</v>
+      </c>
+      <c r="K38" s="21">
         <v>48</v>
       </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="30">
+      <c r="L38" s="21">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="M38" s="36">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47">
         <v>4</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="47">
+        <v>500</v>
+      </c>
+      <c r="G39" s="47">
+        <v>500</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="8">
-        <v>500</v>
-      </c>
-      <c r="G39" s="8">
-        <v>500</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K39" s="29">
+      <c r="J39" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" s="50">
         <v>0.1</v>
       </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="30">
+      <c r="L39" s="21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M39" s="51">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="8">
+        <v>20</v>
+      </c>
+      <c r="G40" s="8">
+        <v>20</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="21">
+        <v>15</v>
+      </c>
+      <c r="L40" s="21">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="M40" s="36">
+        <f>K40*G40</f>
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:M39" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ACCESS POINT"/>
-        <filter val="CENTRAL TELEFONICA"/>
-        <filter val="GABINETES"/>
-        <filter val="INSUMOS REDES"/>
-        <filter val="ROUTER"/>
-        <filter val="SISTEMA DSP"/>
-        <filter val="SUB FERRITA"/>
-        <filter val="SWITCH"/>
-        <filter val="TELEFONO IP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3762,352 +4124,482 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:B43"/>
+  <dimension ref="A3:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" activeCellId="7" sqref="A6 A8 A11 A14 A16 A18 A20 A22 A24 A26 A29 A31 A34 A36 A39 A42"/>
+      <pivotSelection pane="bottomRight" showHeader="1" dimension="2" activeRow="21" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="52">
         <v>8360</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="C4" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="52">
         <v>2960</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="C5" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="52">
         <v>2960</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="C6" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="52">
         <v>5400</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="C7" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="52">
         <v>5400</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="C8" s="52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="52">
         <v>62000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="C9" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="52">
         <v>62000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="C10" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="52">
         <v>62000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="C11" s="52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="52">
         <v>179600</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="C12" s="52">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="B13" s="52">
+        <v>0</v>
+      </c>
+      <c r="C13" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="B14" s="52">
+        <v>0</v>
+      </c>
+      <c r="C14" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="B15" s="52">
+        <v>0</v>
+      </c>
+      <c r="C15" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="B16" s="52">
+        <v>0</v>
+      </c>
+      <c r="C16" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="52">
         <v>80600</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="C17" s="52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="52">
         <v>80600</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="C18" s="52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="B19" s="52">
+        <v>0</v>
+      </c>
+      <c r="C19" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="B20" s="52">
+        <v>0</v>
+      </c>
+      <c r="C20" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="52">
         <v>99000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+      <c r="C21" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="52">
         <v>99000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="C22" s="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="B23" s="52">
+        <v>0</v>
+      </c>
+      <c r="C23" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="B24" s="52">
+        <v>0</v>
+      </c>
+      <c r="C24" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="B25" s="52">
+        <v>0</v>
+      </c>
+      <c r="C25" s="52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="B26" s="52">
+        <v>0</v>
+      </c>
+      <c r="C26" s="52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="52">
         <v>9600</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="C27" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="B28" s="52">
+        <v>0</v>
+      </c>
+      <c r="C28" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="B29" s="52">
+        <v>0</v>
+      </c>
+      <c r="C29" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="52">
         <v>9600</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="C30" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="52">
         <v>9600</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+      <c r="C31" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="52">
         <v>14640</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="C32" s="52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="52">
         <v>8400</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="C33" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="52">
         <v>8400</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="C34" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="52">
         <v>6240</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
+      <c r="C35" s="52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="52">
         <v>6240</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+      <c r="C36" s="52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="52">
         <v>28400</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="C37" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="52">
         <v>28400</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
+      <c r="C38" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="52">
         <v>28400</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
+      <c r="C39" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="52">
         <v>32800</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="C40" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="52">
         <v>32800</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
+      <c r="C41" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="52">
         <v>32800</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="C42" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="52">
         <v>335400</v>
+      </c>
+      <c r="C43" s="52">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4118,379 +4610,379 @@
   </sheetPr>
   <dimension ref="A3:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="53">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>3100</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>80600</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="53">
         <v>26</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>3100</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>80600</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="45">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="53">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
         <v>8500</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="45">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="53">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
         <v>8500</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="53">
         <v>40</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>21770</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>93800</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="53">
         <v>4</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>7100</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>28400</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="53">
         <v>4</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>2100</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>8400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="53">
         <v>4</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>8200</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>32800</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="53">
         <v>4</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>740</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>2960</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="53">
         <v>12</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>450</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>5400</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="53">
         <v>4</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>2400</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>9600</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="53">
         <v>8</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>780</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>6240</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="45">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="53">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
         <v>39500</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="45">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="53">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
         <v>39500</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="45">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="53">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
         <v>6900</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="45">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="53">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
         <v>6900</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="45">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="53">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
         <v>7500</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="45">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="53">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
         <v>7500</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="53">
         <v>15</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>26000</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>161000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="53">
         <v>10</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>6200</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>62000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="53">
         <v>5</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>19800</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>99000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="45">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="53">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
         <v>2913</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="45">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="53">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
         <v>2160</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="45">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27" s="53">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
         <v>753</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="53">
         <v>81</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>116183</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>335400</v>
       </c>
     </row>
@@ -4514,66 +5006,18 @@
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628B031-5DA9-4750-A703-EF4AD06CA61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51284695-9005-4F7B-B884-51AB2C670F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -1204,7 +1204,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45343.441337268516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45344.603296759262" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M35" sheet="PEDIDOS"/>
   </cacheSource>
@@ -1293,7 +1293,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="39500"/>
     </cacheField>
     <cacheField name="TOTAL" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="158400"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="158400"/>
     </cacheField>
     <cacheField name="TOTAL PEDIDO" numFmtId="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="99000"/>
@@ -1696,7 +1696,7 @@
     <s v="952260580021"/>
     <x v="25"/>
     <n v="6900"/>
-    <n v="0"/>
+    <n v="41400"/>
     <n v="0"/>
   </r>
   <r>
@@ -1711,7 +1711,7 @@
     <s v="952260580036"/>
     <x v="26"/>
     <n v="7500"/>
-    <n v="0"/>
+    <n v="15000"/>
     <n v="0"/>
   </r>
   <r>
@@ -1726,7 +1726,7 @@
     <s v="952215610010"/>
     <x v="27"/>
     <n v="8500"/>
-    <n v="0"/>
+    <n v="8500"/>
     <n v="0"/>
   </r>
   <r>
@@ -1741,7 +1741,7 @@
     <s v="952282870040"/>
     <x v="28"/>
     <n v="2160"/>
-    <n v="0"/>
+    <n v="28080"/>
     <n v="0"/>
   </r>
   <r>
@@ -1756,7 +1756,7 @@
     <s v="952282870035"/>
     <x v="29"/>
     <n v="753"/>
-    <n v="0"/>
+    <n v="17319"/>
     <n v="0"/>
   </r>
   <r>
@@ -1771,7 +1771,7 @@
     <s v="952275360001"/>
     <x v="30"/>
     <n v="39500"/>
-    <n v="0"/>
+    <n v="39500"/>
     <n v="0"/>
   </r>
 </pivotCacheRecords>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4128,13 +4128,6 @@
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A22" activeCellId="7" sqref="A6 A8 A11 A14 A16 A18 A20 A22 A24 A26 A29 A31 A34 A36 A39 A42"/>
-      <pivotSelection pane="bottomRight" showHeader="1" dimension="2" activeRow="21" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4610,7 +4603,7 @@
   </sheetPr>
   <dimension ref="A3:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51284695-9005-4F7B-B884-51AB2C670F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF9E4E6-1B46-4570-8AD1-52522E585947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="52" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="145">
   <si>
     <t>ITEM</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>199200050413</t>
-  </si>
-  <si>
-    <t>Suma de CANT.</t>
   </si>
   <si>
     <t>CINTA AISLANTE</t>
@@ -740,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -863,7 +860,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,7 +867,382 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="153">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1204,7 +1575,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45344.603296759262" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45348.526433796294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M35" sheet="PEDIDOS"/>
   </cacheSource>
@@ -1229,7 +1600,39 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
     </cacheField>
     <cacheField name="MATERIALES" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="31">
+        <s v="Cable XLR x 100 M"/>
+        <s v="Conectores XLR Macho"/>
+        <s v="Conectores XLR Hembra"/>
+        <s v="Snake de 8x4."/>
+        <s v="Fly Bar para sistema de audio."/>
+        <s v="Cable XLR de 15 metros."/>
+        <s v="Estaño"/>
+        <s v="Pasta de soldar "/>
+        <s v="Caja directa"/>
+        <s v="Cable TS para instrumentos"/>
+        <s v="Cable NTL 3x14  (cable vulcanizado ) x 100M"/>
+        <s v="Tomacorriente doble para Extensión"/>
+        <s v="Enchufe 5-15"/>
+        <s v="Powercon, NAC3FCA"/>
+        <s v="Powercon, NAC3FCB"/>
+        <s v="GABINETE PROFESIONAL PARA TELECOMUNICACIONES 42UR"/>
+        <s v="PDU"/>
+        <s v="ORGANIZADOR DE CABLES HORIZONTAL."/>
+        <s v="ORGANIZADOR DE CABLES VERTICAL"/>
+        <s v="Bandeja para ventilador de rack, con ventilador"/>
+        <s v="Extractor De Aire"/>
+        <s v="UPS SECUNDARIOS"/>
+        <s v="ACCESS POINT"/>
+        <s v="SWITCH 48 p 1G/10GBase-T 4 p 100G QSFP+/28 3"/>
+        <s v="Transceiver 100G LC/LC"/>
+        <s v="SISTEMA DSP"/>
+        <s v="SUB FERRITA"/>
+        <s v="CENTRAL TELEFONICA"/>
+        <s v="TELEFONO GERENCIAL"/>
+        <s v="TELEFONO GENERAL"/>
+        <s v="ROUTER CLOUD CORE"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="UNID." numFmtId="0">
       <sharedItems/>
@@ -1313,7 +1716,7 @@
     <x v="0"/>
     <n v="497"/>
     <n v="1"/>
-    <s v="Cable XLR x 100 M"/>
+    <x v="0"/>
     <s v="Unidad"/>
     <n v="2"/>
     <n v="2"/>
@@ -1328,7 +1731,7 @@
     <x v="0"/>
     <m/>
     <n v="2"/>
-    <s v="Conectores XLR Macho"/>
+    <x v="1"/>
     <s v="Unidad"/>
     <n v="25"/>
     <n v="25"/>
@@ -1343,7 +1746,7 @@
     <x v="0"/>
     <m/>
     <n v="3"/>
-    <s v="Conectores XLR Hembra"/>
+    <x v="2"/>
     <s v="Unidad"/>
     <n v="25"/>
     <n v="25"/>
@@ -1358,7 +1761,7 @@
     <x v="0"/>
     <m/>
     <n v="4"/>
-    <s v="Snake de 8x4."/>
+    <x v="3"/>
     <s v="Unidad"/>
     <n v="1"/>
     <n v="1"/>
@@ -1373,7 +1776,7 @@
     <x v="0"/>
     <m/>
     <n v="5"/>
-    <s v="Fly Bar para sistema de audio."/>
+    <x v="4"/>
     <s v="Unidad"/>
     <n v="2"/>
     <n v="2"/>
@@ -1388,7 +1791,7 @@
     <x v="0"/>
     <m/>
     <n v="6"/>
-    <s v="Cable XLR de 15 metros."/>
+    <x v="5"/>
     <s v="Unidad"/>
     <n v="15"/>
     <n v="15"/>
@@ -1403,7 +1806,7 @@
     <x v="0"/>
     <m/>
     <n v="7"/>
-    <s v="Estaño"/>
+    <x v="6"/>
     <s v="Unidad"/>
     <n v="2"/>
     <n v="2"/>
@@ -1418,7 +1821,7 @@
     <x v="0"/>
     <m/>
     <n v="8"/>
-    <s v="Pasta de soldar "/>
+    <x v="7"/>
     <s v="Unidad"/>
     <n v="2"/>
     <n v="2"/>
@@ -1433,7 +1836,7 @@
     <x v="0"/>
     <m/>
     <n v="9"/>
-    <s v="Caja directa"/>
+    <x v="8"/>
     <s v="Unidad"/>
     <n v="3"/>
     <n v="3"/>
@@ -1448,7 +1851,7 @@
     <x v="0"/>
     <m/>
     <n v="10"/>
-    <s v="Cable TS para instrumentos"/>
+    <x v="9"/>
     <s v="Unidad"/>
     <n v="6"/>
     <n v="6"/>
@@ -1463,7 +1866,7 @@
     <x v="0"/>
     <m/>
     <n v="11"/>
-    <s v="Cable NTL 3x14  (cable vulcanizado ) x 100M"/>
+    <x v="10"/>
     <s v="Unidad"/>
     <n v="3"/>
     <n v="3"/>
@@ -1478,7 +1881,7 @@
     <x v="0"/>
     <m/>
     <n v="12"/>
-    <s v="Tomacorriente doble para Extensión"/>
+    <x v="11"/>
     <s v="Unidad"/>
     <n v="24"/>
     <n v="0"/>
@@ -1493,7 +1896,7 @@
     <x v="0"/>
     <m/>
     <n v="13"/>
-    <s v="Enchufe 5-15"/>
+    <x v="12"/>
     <s v="Unidad"/>
     <n v="12"/>
     <n v="12"/>
@@ -1508,7 +1911,7 @@
     <x v="0"/>
     <m/>
     <n v="14"/>
-    <s v="Powercon, NAC3FCA"/>
+    <x v="13"/>
     <s v="Unidad"/>
     <n v="26"/>
     <n v="0"/>
@@ -1523,7 +1926,7 @@
     <x v="0"/>
     <m/>
     <n v="15"/>
-    <s v="Powercon, NAC3FCB"/>
+    <x v="14"/>
     <s v="Unidad"/>
     <n v="26"/>
     <n v="0"/>
@@ -1538,7 +1941,7 @@
     <x v="1"/>
     <m/>
     <n v="1"/>
-    <s v="GABINETE PROFESIONAL PARA TELECOMUNICACIONES 42UR"/>
+    <x v="15"/>
     <s v="und"/>
     <n v="7"/>
     <n v="4"/>
@@ -1553,7 +1956,7 @@
     <x v="1"/>
     <m/>
     <n v="2"/>
-    <s v="PDU"/>
+    <x v="16"/>
     <s v="und"/>
     <n v="7"/>
     <n v="4"/>
@@ -1568,7 +1971,7 @@
     <x v="1"/>
     <m/>
     <n v="3"/>
-    <s v="ORGANIZADOR DE CABLES HORIZONTAL."/>
+    <x v="17"/>
     <s v="und"/>
     <n v="24"/>
     <n v="12"/>
@@ -1583,7 +1986,7 @@
     <x v="1"/>
     <m/>
     <n v="4"/>
-    <s v="ORGANIZADOR DE CABLES VERTICAL"/>
+    <x v="18"/>
     <s v="und"/>
     <n v="7"/>
     <n v="4"/>
@@ -1598,7 +2001,7 @@
     <x v="1"/>
     <m/>
     <n v="5"/>
-    <s v="Bandeja para ventilador de rack, con ventilador"/>
+    <x v="19"/>
     <s v="und"/>
     <n v="14"/>
     <n v="8"/>
@@ -1613,7 +2016,7 @@
     <x v="1"/>
     <m/>
     <n v="6"/>
-    <s v="Extractor De Aire"/>
+    <x v="20"/>
     <s v="und"/>
     <n v="7"/>
     <n v="4"/>
@@ -1628,7 +2031,7 @@
     <x v="1"/>
     <m/>
     <n v="7"/>
-    <s v="UPS SECUNDARIOS"/>
+    <x v="21"/>
     <s v="und"/>
     <n v="7"/>
     <n v="4"/>
@@ -1643,7 +2046,7 @@
     <x v="2"/>
     <m/>
     <n v="1"/>
-    <s v="ACCESS POINT"/>
+    <x v="22"/>
     <s v="Und."/>
     <n v="43"/>
     <n v="26"/>
@@ -1658,7 +2061,7 @@
     <x v="3"/>
     <m/>
     <n v="1"/>
-    <s v="SWITCH 48 p 1G/10GBase-T 4 p 100G QSFP+/28 3"/>
+    <x v="23"/>
     <s v="Unid"/>
     <n v="8"/>
     <n v="5"/>
@@ -1673,7 +2076,7 @@
     <x v="3"/>
     <m/>
     <n v="2"/>
-    <s v="Transceiver 100G LC/LC"/>
+    <x v="24"/>
     <s v="Unid"/>
     <n v="16"/>
     <n v="10"/>
@@ -1688,7 +2091,7 @@
     <x v="4"/>
     <m/>
     <n v="1"/>
-    <s v="SISTEMA DSP"/>
+    <x v="25"/>
     <s v="UNID."/>
     <n v="6"/>
     <n v="0"/>
@@ -1703,7 +2106,7 @@
     <x v="5"/>
     <m/>
     <n v="1"/>
-    <s v="SUB FERRITA"/>
+    <x v="26"/>
     <s v="UNID."/>
     <n v="2"/>
     <n v="0"/>
@@ -1718,7 +2121,7 @@
     <x v="6"/>
     <m/>
     <n v="1"/>
-    <s v="CENTRAL TELEFONICA"/>
+    <x v="27"/>
     <s v="UNID."/>
     <n v="1"/>
     <n v="0"/>
@@ -1733,7 +2136,7 @@
     <x v="7"/>
     <m/>
     <n v="1"/>
-    <s v="TELEFONO GERENCIAL"/>
+    <x v="28"/>
     <s v="UNID."/>
     <n v="13"/>
     <n v="0"/>
@@ -1748,7 +2151,7 @@
     <x v="7"/>
     <m/>
     <n v="2"/>
-    <s v="TELEFONO GENERAL"/>
+    <x v="29"/>
     <s v="UNID."/>
     <n v="23"/>
     <n v="0"/>
@@ -1763,35 +2166,191 @@
     <x v="8"/>
     <m/>
     <n v="1"/>
-    <s v="ROUTER CLOUD CORE"/>
+    <x v="30"/>
     <s v="UNID."/>
     <n v="1"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="5"/>
     <s v="952275360001"/>
     <x v="30"/>
     <n v="39500"/>
     <n v="39500"/>
-    <n v="0"/>
+    <n v="39500"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item x="8"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="3"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="32">
+        <item x="22"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="25"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="24"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="7"/>
+    <field x="0"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Suma de CANT. PED" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="106">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="6"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="0"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item x="3"/>
-        <item x="7"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1799,8 +2358,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -1850,27 +2409,21 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
     <pivotField numFmtId="4" showAll="0"/>
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
   <rowFields count="3">
+    <field x="0"/>
+    <field x="9"/>
     <field x="7"/>
-    <field x="9"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="40">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
+      <x v="20"/>
     </i>
     <i r="2">
       <x v="2"/>
@@ -1879,259 +2432,10 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
       <x v="7"/>
     </i>
     <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i r="2">
       <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Suma de CANT." fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item h="1" x="0"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="32">
-        <item x="21"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="30"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="23"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="11"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="25">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
     </i>
     <i>
       <x v="7"/>
@@ -2139,17 +2443,14 @@
     <i r="1">
       <x v="15"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
     <i r="1">
       <x v="25"/>
     </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
+    <i r="2">
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2175,7 +2476,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="11">
+    <format dxfId="136">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2185,7 +2486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2195,7 +2496,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="134">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2204,7 +2505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2213,7 +2514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="132">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2222,7 +2523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2245,22 +2546,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="152" tableBorderDxfId="151" totalsRowBorderDxfId="150">
   <autoFilter ref="A4:M40" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="148"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="143"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="141"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="140"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="139"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="138"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="137">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2567,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>114</v>
@@ -3901,7 +4202,7 @@
       </c>
       <c r="M35" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -3969,10 +4270,10 @@
         <v>131</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K37" s="21">
         <v>85</v>
@@ -4077,7 +4378,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>71</v>
@@ -4092,10 +4393,10 @@
         <v>131</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="K40" s="21">
         <v>15</v>
@@ -4121,25 +4422,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A3:C43"/>
+  <dimension ref="A3:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" activeCellId="7" sqref="A6 A8 A11 A14 A16 A18 A20 A22 A24 A26 A29 A31 A34 A36 A39 A42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>122</v>
       </c>
@@ -4147,452 +4446,346 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="52">
-        <v>8360</v>
-      </c>
-      <c r="C4" s="52">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="B4" s="12">
+        <v>62000</v>
+      </c>
+      <c r="C4" s="12">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="52">
-        <v>2960</v>
-      </c>
-      <c r="C5" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="B5" s="12">
+        <v>62000</v>
+      </c>
+      <c r="C5" s="12">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="52">
-        <v>2960</v>
-      </c>
-      <c r="C6" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="52">
-        <v>5400</v>
-      </c>
-      <c r="C7" s="52">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="52">
-        <v>5400</v>
-      </c>
-      <c r="C8" s="52">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="52">
+        <v>72</v>
+      </c>
+      <c r="B6" s="12">
         <v>62000</v>
       </c>
-      <c r="C9" s="52">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="12">
+        <v>10</v>
+      </c>
+      <c r="D6" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="12">
+        <v>219100</v>
+      </c>
+      <c r="C7" s="12">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="12">
+        <v>80600</v>
+      </c>
+      <c r="C8" s="12">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="12">
+        <v>80600</v>
+      </c>
+      <c r="C9" s="12">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="52">
-        <v>62000</v>
-      </c>
-      <c r="C10" s="52">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="B10" s="12">
+        <v>39500</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="12">
+        <v>39500</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="52">
-        <v>62000</v>
-      </c>
-      <c r="C11" s="52">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="52">
-        <v>179600</v>
-      </c>
-      <c r="C12" s="52">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="52">
-        <v>0</v>
-      </c>
-      <c r="C13" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="52">
-        <v>0</v>
-      </c>
-      <c r="C14" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="52">
-        <v>0</v>
-      </c>
-      <c r="C15" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="52">
-        <v>0</v>
-      </c>
-      <c r="C16" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="52">
-        <v>80600</v>
-      </c>
-      <c r="C17" s="52">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="52">
-        <v>80600</v>
-      </c>
-      <c r="C18" s="52">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="52">
-        <v>0</v>
-      </c>
-      <c r="C19" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="52">
-        <v>0</v>
-      </c>
-      <c r="C20" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="52">
+      <c r="B12" s="12">
         <v>99000</v>
       </c>
-      <c r="C21" s="52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="52">
+      <c r="C12" s="12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="12">
         <v>99000</v>
       </c>
-      <c r="C22" s="52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="52">
-        <v>0</v>
-      </c>
-      <c r="C23" s="52">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="52">
-        <v>0</v>
-      </c>
-      <c r="C24" s="52">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="52">
-        <v>0</v>
-      </c>
-      <c r="C25" s="52">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="52">
-        <v>0</v>
-      </c>
-      <c r="C26" s="52">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="52">
-        <v>9600</v>
-      </c>
-      <c r="C27" s="52">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="52">
-        <v>0</v>
-      </c>
-      <c r="C28" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="52">
-        <v>0</v>
-      </c>
-      <c r="C29" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="52">
-        <v>9600</v>
-      </c>
-      <c r="C30" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="52">
-        <v>9600</v>
-      </c>
-      <c r="C31" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="52">
-        <v>14640</v>
-      </c>
-      <c r="C32" s="52">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="52">
-        <v>8400</v>
-      </c>
-      <c r="C33" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="52">
-        <v>8400</v>
-      </c>
-      <c r="C34" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="52">
-        <v>6240</v>
-      </c>
-      <c r="C35" s="52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="52">
-        <v>6240</v>
-      </c>
-      <c r="C36" s="52">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="52">
-        <v>28400</v>
-      </c>
-      <c r="C37" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="52">
-        <v>28400</v>
-      </c>
-      <c r="C38" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="52">
-        <v>28400</v>
-      </c>
-      <c r="C39" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="52">
-        <v>32800</v>
-      </c>
-      <c r="C40" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="52">
-        <v>32800</v>
-      </c>
-      <c r="C41" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="52">
-        <v>32800</v>
-      </c>
-      <c r="C42" s="52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="C13" s="12">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="52">
-        <v>335400</v>
-      </c>
-      <c r="C43" s="52">
-        <v>186</v>
-      </c>
+      <c r="B14" s="12">
+        <v>281100</v>
+      </c>
+      <c r="C14" s="12">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4604,12 +4797,12 @@
   <dimension ref="A3:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
@@ -4633,7 +4826,7 @@
       <c r="A4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="52">
         <v>26</v>
       </c>
       <c r="C4" s="12">
@@ -4647,7 +4840,7 @@
       <c r="A5" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="52">
         <v>26</v>
       </c>
       <c r="C5" s="12">
@@ -4658,24 +4851,24 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="52">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3100</v>
+      </c>
+      <c r="D6" s="12">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="53">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>8500</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="53">
+      <c r="B7" s="52">
         <v>0</v>
       </c>
       <c r="C7" s="12">
@@ -4686,315 +4879,198 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="53">
-        <v>40</v>
+      <c r="A8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="52">
+        <v>0</v>
       </c>
       <c r="C8" s="12">
-        <v>21770</v>
+        <v>8500</v>
       </c>
       <c r="D8" s="12">
-        <v>93800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="53">
-        <v>4</v>
+      <c r="A9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="52">
+        <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>7100</v>
+        <v>8500</v>
       </c>
       <c r="D9" s="12">
-        <v>28400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="53">
-        <v>4</v>
+      <c r="A10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="52">
+        <v>15</v>
       </c>
       <c r="C10" s="12">
-        <v>2100</v>
+        <v>26000</v>
       </c>
       <c r="D10" s="12">
-        <v>8400</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="53">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="B11" s="52">
+        <v>10</v>
       </c>
       <c r="C11" s="12">
-        <v>8200</v>
+        <v>6200</v>
       </c>
       <c r="D11" s="12">
-        <v>32800</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="53">
-        <v>4</v>
+      <c r="A12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="52">
+        <v>10</v>
       </c>
       <c r="C12" s="12">
-        <v>740</v>
+        <v>6200</v>
       </c>
       <c r="D12" s="12">
-        <v>2960</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="53">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="B13" s="52">
+        <v>5</v>
       </c>
       <c r="C13" s="12">
-        <v>450</v>
+        <v>19800</v>
       </c>
       <c r="D13" s="12">
-        <v>5400</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="53">
-        <v>4</v>
+      <c r="A14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="52">
+        <v>5</v>
       </c>
       <c r="C14" s="12">
-        <v>2400</v>
+        <v>19800</v>
       </c>
       <c r="D14" s="12">
-        <v>9600</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="53">
-        <v>8</v>
+      <c r="A15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="52">
+        <v>41</v>
       </c>
       <c r="C15" s="12">
-        <v>780</v>
+        <v>37600</v>
       </c>
       <c r="D15" s="12">
-        <v>6240</v>
+        <v>241600</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="53">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12">
-        <v>39500</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="53">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>39500</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="53">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
-        <v>6900</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="53">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12">
-        <v>6900</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="53">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>7500</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="53">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <v>7500</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="53">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12">
-        <v>26000</v>
-      </c>
-      <c r="D22" s="12">
-        <v>161000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="53">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12">
-        <v>6200</v>
-      </c>
-      <c r="D23" s="12">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="53">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12">
-        <v>19800</v>
-      </c>
-      <c r="D24" s="12">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="53">
-        <v>0</v>
-      </c>
-      <c r="C25" s="12">
-        <v>2913</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="53">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12">
-        <v>2160</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="53">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12">
-        <v>753</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="53">
-        <v>81</v>
-      </c>
-      <c r="C28" s="12">
-        <v>116183</v>
-      </c>
-      <c r="D28" s="12">
-        <v>335400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF9E4E6-1B46-4570-8AD1-52522E585947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9956A-EC46-4FB6-AC0B-BABCF502255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
+    <sheet name="POR CLASIFICADOR" sheetId="4" r:id="rId2"/>
     <sheet name="MONTO PEDIDO" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -867,43 +867,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -929,339 +893,6 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1272,6 +903,12 @@
     </dxf>
     <dxf>
       <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1575,7 +1212,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45348.526433796294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45350.686331481484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M35" sheet="PEDIDOS"/>
   </cacheSource>
@@ -2181,7 +1818,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2317,10 +1954,10 @@
     <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="106">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2337,7 +1974,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2476,7 +2113,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="136">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2486,7 +2123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="135">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2496,7 +2133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2505,7 +2142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2514,7 +2151,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2523,7 +2160,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2546,22 +2183,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="152" tableBorderDxfId="151" totalsRowBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A4:M40" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="149"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="146"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="145"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="144"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="143"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="142"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="141"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="140"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="139"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="138"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="137">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="16">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4425,7 +4062,7 @@
   <dimension ref="A3:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4995,86 +4632,22 @@
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9956A-EC46-4FB6-AC0B-BABCF502255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74087795-A6B2-4B4F-8FC7-A2F201CE3067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
   <si>
     <t>ITEM</t>
   </si>
@@ -867,7 +867,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1212,7 +1236,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45350.686331481484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45351.351356134262" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M35" sheet="PEDIDOS"/>
   </cacheSource>
@@ -1819,19 +1843,19 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:D56" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="2"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="0"/>
         <item x="8"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="3"/>
-        <item h="1" x="7"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1899,7 +1923,67 @@
     <field x="0"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="53">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x v="28"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -1919,16 +2003,82 @@
       <x/>
     </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
       <x v="4"/>
     </i>
     <i r="2">
       <x v="21"/>
     </i>
     <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
+    </i>
+    <i r="1">
       <x v="7"/>
     </i>
     <i r="2">
       <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="26"/>
+    </i>
+    <i r="2">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -1954,10 +2104,10 @@
     <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -1975,19 +2125,19 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:D75" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="8"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="3"/>
-        <item h="1" x="7"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2055,7 +2205,7 @@
     <field x="9"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="72">
     <i>
       <x/>
     </i>
@@ -2075,6 +2225,171 @@
       <x v="2"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i r="1">
@@ -2085,6 +2400,21 @@
     </i>
     <i r="1">
       <x v="25"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
     </i>
     <i r="2">
       <x v="2"/>
@@ -2113,7 +2443,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="13">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2123,7 +2453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2133,7 +2463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2142,7 +2472,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2151,7 +2481,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2160,7 +2490,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2183,22 +2513,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A4:M40" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="24">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4061,13 +4391,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
   <dimension ref="A3:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
@@ -4091,306 +4421,768 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" s="12">
-        <v>62000</v>
+        <v>32160</v>
       </c>
       <c r="C4" s="12">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D4" s="12">
-        <v>6200</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="12">
-        <v>62000</v>
+        <v>8360</v>
       </c>
       <c r="C5" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" s="12">
-        <v>6200</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B6" s="12">
-        <v>62000</v>
+        <v>5400</v>
       </c>
       <c r="C6" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="12">
-        <v>6200</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>114</v>
+      <c r="A7" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="12">
-        <v>219100</v>
+        <v>2960</v>
       </c>
       <c r="C7" s="12">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12">
-        <v>62400</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="B8" s="12">
-        <v>80600</v>
+        <v>23800</v>
       </c>
       <c r="C8" s="12">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D8" s="12">
-        <v>3100</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B9" s="12">
-        <v>80600</v>
+        <v>2160</v>
       </c>
       <c r="C9" s="12">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D9" s="12">
-        <v>3100</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>93</v>
+      <c r="A10" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="12">
-        <v>39500</v>
+        <v>1500</v>
       </c>
       <c r="C10" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="12">
-        <v>39500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>39500</v>
+        <v>3750</v>
       </c>
       <c r="C11" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D11" s="12">
-        <v>39500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>69</v>
+      <c r="A12" s="28" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="12">
-        <v>99000</v>
+        <v>1500</v>
       </c>
       <c r="C12" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="12">
-        <v>19800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2250</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1875</v>
+      </c>
+      <c r="C14" s="12">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1875</v>
+      </c>
+      <c r="C15" s="12">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="12">
+        <v>576</v>
+      </c>
+      <c r="C16" s="12">
+        <v>12</v>
+      </c>
+      <c r="D16" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="12">
+        <v>90</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5000</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12">
+        <v>3200</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="12">
+        <v>62000</v>
+      </c>
+      <c r="C24" s="12">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="12">
+        <v>62000</v>
+      </c>
+      <c r="C25" s="12">
+        <v>10</v>
+      </c>
+      <c r="D25" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="12">
+        <v>62000</v>
+      </c>
+      <c r="C26" s="12">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="12">
+        <v>219100</v>
+      </c>
+      <c r="C27" s="12">
+        <v>32</v>
+      </c>
+      <c r="D27" s="12">
+        <v>81313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="12">
+        <v>80600</v>
+      </c>
+      <c r="C28" s="12">
+        <v>26</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="12">
+        <v>80600</v>
+      </c>
+      <c r="C29" s="12">
+        <v>26</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="12">
+        <v>39500</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="12">
+        <v>39500</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="12">
+        <v>99000</v>
+      </c>
+      <c r="C36" s="12">
+        <v>5</v>
+      </c>
+      <c r="D36" s="12">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B37" s="12">
         <v>99000</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C37" s="12">
         <v>5</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D37" s="12">
         <v>19800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="12">
+        <v>9600</v>
+      </c>
+      <c r="C41" s="12">
+        <v>4</v>
+      </c>
+      <c r="D41" s="12">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="12">
+        <v>9600</v>
+      </c>
+      <c r="C42" s="12">
+        <v>4</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="12">
+        <v>9600</v>
+      </c>
+      <c r="C43" s="12">
+        <v>4</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="12">
+        <v>14640</v>
+      </c>
+      <c r="C46" s="12">
+        <v>12</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="12">
+        <v>14640</v>
+      </c>
+      <c r="C47" s="12">
+        <v>12</v>
+      </c>
+      <c r="D47" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="12">
+        <v>6240</v>
+      </c>
+      <c r="C48" s="12">
+        <v>8</v>
+      </c>
+      <c r="D48" s="12">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="12">
+        <v>8400</v>
+      </c>
+      <c r="C49" s="12">
+        <v>4</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="12">
+        <v>28400</v>
+      </c>
+      <c r="C50" s="12">
+        <v>4</v>
+      </c>
+      <c r="D50" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="12">
+        <v>28400</v>
+      </c>
+      <c r="C51" s="12">
+        <v>4</v>
+      </c>
+      <c r="D51" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="12">
+        <v>28400</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4</v>
+      </c>
+      <c r="D52" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="12">
+        <v>32800</v>
+      </c>
+      <c r="C53" s="12">
+        <v>4</v>
+      </c>
+      <c r="D53" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="12">
+        <v>32800</v>
+      </c>
+      <c r="C54" s="12">
+        <v>4</v>
+      </c>
+      <c r="D54" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="12">
+        <v>32800</v>
+      </c>
+      <c r="C55" s="12">
+        <v>4</v>
+      </c>
+      <c r="D55" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="12">
-        <v>281100</v>
-      </c>
-      <c r="C14" s="12">
-        <v>42</v>
-      </c>
-      <c r="D14" s="12">
-        <v>68600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="12">
+        <v>398700</v>
+      </c>
+      <c r="C56" s="12">
+        <v>180</v>
+      </c>
+      <c r="D56" s="12">
+        <v>125043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -4431,15 +5223,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:D44"/>
+  <dimension ref="A3:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
@@ -4545,121 +5337,928 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="52">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C10" s="12">
-        <v>26000</v>
+        <v>21770</v>
       </c>
       <c r="D10" s="12">
-        <v>161000</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B11" s="52">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="12">
-        <v>6200</v>
+        <v>7100</v>
       </c>
       <c r="D11" s="12">
-        <v>62000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="52">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12" s="12">
-        <v>6200</v>
+        <v>7100</v>
       </c>
       <c r="D12" s="12">
-        <v>62000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B13" s="52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="12">
-        <v>19800</v>
+        <v>2100</v>
       </c>
       <c r="D13" s="12">
-        <v>99000</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="52">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2100</v>
+      </c>
+      <c r="D14" s="12">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="52">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12">
+        <v>8200</v>
+      </c>
+      <c r="D15" s="12">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="52">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8200</v>
+      </c>
+      <c r="D16" s="12">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="52">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12">
+        <v>740</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="52">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12">
+        <v>740</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="52">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12">
+        <v>450</v>
+      </c>
+      <c r="D19" s="12">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="52">
+        <v>12</v>
+      </c>
+      <c r="C20" s="12">
+        <v>450</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="52">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2400</v>
+      </c>
+      <c r="D21" s="12">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="52">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2400</v>
+      </c>
+      <c r="D22" s="12">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="52">
+        <v>8</v>
+      </c>
+      <c r="C23" s="12">
+        <v>780</v>
+      </c>
+      <c r="D23" s="12">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="52">
+        <v>8</v>
+      </c>
+      <c r="C24" s="12">
+        <v>780</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="52">
+        <v>98</v>
+      </c>
+      <c r="C25" s="12">
+        <v>8860</v>
+      </c>
+      <c r="D25" s="12">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="52">
+        <v>15</v>
+      </c>
+      <c r="C26" s="12">
+        <v>250</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="52">
+        <v>15</v>
+      </c>
+      <c r="C27" s="12">
+        <v>250</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="52">
+        <v>6</v>
+      </c>
+      <c r="C28" s="12">
+        <v>250</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="52">
+        <v>6</v>
+      </c>
+      <c r="C29" s="12">
+        <v>250</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="52">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12">
+        <v>720</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="52">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12">
+        <v>720</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="52">
+        <v>2</v>
+      </c>
+      <c r="C32" s="12">
+        <v>750</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="52">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12">
+        <v>750</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="52">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12">
+        <v>3200</v>
+      </c>
+      <c r="D34" s="12">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="52">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3200</v>
+      </c>
+      <c r="D35" s="12">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="52">
+        <v>3</v>
+      </c>
+      <c r="C36" s="12">
+        <v>750</v>
+      </c>
+      <c r="D36" s="12">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="52">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12">
+        <v>750</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="52">
+        <v>25</v>
+      </c>
+      <c r="C38" s="12">
+        <v>75</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="52">
+        <v>25</v>
+      </c>
+      <c r="C39" s="12">
+        <v>75</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="52">
+        <v>25</v>
+      </c>
+      <c r="C40" s="12">
+        <v>75</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="52">
+        <v>25</v>
+      </c>
+      <c r="C41" s="12">
+        <v>75</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="52">
+        <v>12</v>
+      </c>
+      <c r="C42" s="12">
+        <v>48</v>
+      </c>
+      <c r="D42" s="12">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="52">
+        <v>12</v>
+      </c>
+      <c r="C43" s="12">
+        <v>48</v>
+      </c>
+      <c r="D43" s="12">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="52">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>75</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="52">
+        <v>0</v>
+      </c>
+      <c r="C45" s="12">
+        <v>75</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="52">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12">
+        <v>75</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="52">
+        <v>0</v>
+      </c>
+      <c r="C47" s="12">
+        <v>75</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="52">
+        <v>2</v>
+      </c>
+      <c r="C48" s="12">
+        <v>45</v>
+      </c>
+      <c r="D48" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="52">
+        <v>2</v>
+      </c>
+      <c r="C49" s="12">
+        <v>45</v>
+      </c>
+      <c r="D49" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="52">
+        <v>2</v>
+      </c>
+      <c r="C50" s="12">
+        <v>12</v>
+      </c>
+      <c r="D50" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="52">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12">
+        <v>12</v>
+      </c>
+      <c r="D51" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="12">
+        <v>2500</v>
+      </c>
+      <c r="D52" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="52">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12">
+        <v>2500</v>
+      </c>
+      <c r="D53" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="52">
+        <v>0</v>
+      </c>
+      <c r="C54" s="12">
+        <v>35</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="52">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
+        <v>35</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="52">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <v>39500</v>
+      </c>
+      <c r="D56" s="12">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="52">
+        <v>1</v>
+      </c>
+      <c r="C57" s="12">
+        <v>39500</v>
+      </c>
+      <c r="D57" s="12">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B58" s="52">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12">
+        <v>39500</v>
+      </c>
+      <c r="D58" s="12">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="52">
+        <v>0</v>
+      </c>
+      <c r="C59" s="12">
+        <v>6900</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="52">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12">
+        <v>6900</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="52">
+        <v>0</v>
+      </c>
+      <c r="C61" s="12">
+        <v>6900</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="52">
+        <v>0</v>
+      </c>
+      <c r="C62" s="12">
+        <v>7500</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="52">
+        <v>0</v>
+      </c>
+      <c r="C63" s="12">
+        <v>7500</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="52">
+        <v>0</v>
+      </c>
+      <c r="C64" s="12">
+        <v>7500</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="52">
+        <v>15</v>
+      </c>
+      <c r="C65" s="12">
+        <v>26000</v>
+      </c>
+      <c r="D65" s="12">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="52">
+        <v>10</v>
+      </c>
+      <c r="C66" s="12">
+        <v>6200</v>
+      </c>
+      <c r="D66" s="12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="52">
+        <v>10</v>
+      </c>
+      <c r="C67" s="12">
+        <v>6200</v>
+      </c>
+      <c r="D67" s="12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="52">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C68" s="12">
         <v>19800</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D68" s="12">
         <v>99000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="52">
+        <v>5</v>
+      </c>
+      <c r="C69" s="12">
+        <v>19800</v>
+      </c>
+      <c r="D69" s="12">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="52">
+        <v>0</v>
+      </c>
+      <c r="C70" s="12">
+        <v>2913</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="52">
+        <v>0</v>
+      </c>
+      <c r="C71" s="12">
+        <v>2160</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="52">
+        <v>0</v>
+      </c>
+      <c r="C72" s="12">
+        <v>2160</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="52">
+        <v>0</v>
+      </c>
+      <c r="C73" s="12">
+        <v>753</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="52">
+        <v>0</v>
+      </c>
+      <c r="C74" s="12">
+        <v>753</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="52">
-        <v>41</v>
-      </c>
-      <c r="C15" s="12">
-        <v>37600</v>
-      </c>
-      <c r="D15" s="12">
-        <v>241600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B75" s="52">
+        <v>180</v>
+      </c>
+      <c r="C75" s="12">
+        <v>125043</v>
+      </c>
+      <c r="D75" s="12">
+        <v>398700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74087795-A6B2-4B4F-8FC7-A2F201CE3067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A334A-82CE-4F12-8C41-F8061B58EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="MONTO PEDIDO" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEDIDOS!$A$4:$M$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PEDIDOS!$A$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEDIDOS!$A$4:$M$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PEDIDOS!$A$1:$M$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="35" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
   <si>
     <t>ITEM</t>
   </si>
@@ -273,9 +273,6 @@
     <t>767500610008</t>
   </si>
   <si>
-    <t xml:space="preserve">INTERFASE TRANSCEIVER FIBRA OPTICA	</t>
-  </si>
-  <si>
     <t>952260580021</t>
   </si>
   <si>
@@ -387,12 +384,6 @@
     <t>2.6. 3  2. 9  4</t>
   </si>
   <si>
-    <t>2.6. 3  2. 3  3</t>
-  </si>
-  <si>
-    <t>2.6. 3  2. 3  1</t>
-  </si>
-  <si>
     <t>PU</t>
   </si>
   <si>
@@ -478,13 +469,25 @@
   </si>
   <si>
     <t xml:space="preserve">199200050525 </t>
+  </si>
+  <si>
+    <t>INYECTOR POE 24 PUERTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITCH PARA RED DE 24 PUERTOS POE	</t>
+  </si>
+  <si>
+    <t>952281170088</t>
+  </si>
+  <si>
+    <t>TRANSCEIVER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +538,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -867,7 +876,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="64">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1236,9 +1317,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45351.351356134262" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45355.45783078704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:M35" sheet="PEDIDOS"/>
+    <worksheetSource ref="A4:M36" sheet="PEDIDOS"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="PEDIDO" numFmtId="0">
@@ -1261,7 +1342,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
     </cacheField>
     <cacheField name="MATERIALES" numFmtId="0">
-      <sharedItems count="31">
+      <sharedItems count="32">
         <s v="Cable XLR x 100 M"/>
         <s v="Conectores XLR Macho"/>
         <s v="Conectores XLR Hembra"/>
@@ -1286,6 +1367,7 @@
         <s v="UPS SECUNDARIOS"/>
         <s v="ACCESS POINT"/>
         <s v="SWITCH 48 p 1G/10GBase-T 4 p 100G QSFP+/28 3"/>
+        <s v="INYECTOR POE 24 PUERTOS"/>
         <s v="Transceiver 100G LC/LC"/>
         <s v="SISTEMA DSP"/>
         <s v="SUB FERRITA"/>
@@ -1311,15 +1393,15 @@
         <s v="2.6. 3  2. 3  3_x0009_"/>
         <s v="2.6. 3  2. 9  1"/>
         <s v="2.6. 3  2. 9  4"/>
-        <s v="2.6. 3  2. 3  3"/>
-        <s v="2.6. 3  2. 3  1"/>
+        <s v="2.6. 3  2. 3  3" u="1"/>
+        <s v="2.6. 3  2. 3  1" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ITEM SIGA" numFmtId="49">
       <sharedItems/>
     </cacheField>
     <cacheField name="DESCRIPCION" numFmtId="0">
-      <sharedItems count="31">
+      <sharedItems count="33">
         <s v="CABLE XLR-XLR DE 15 m"/>
         <s v="CONECTOR TRIAXIAL MACHO"/>
         <s v="CONECTOR TRIAXIAL HEMBRA"/>
@@ -1344,13 +1426,15 @@
         <s v="ACUMULADOR DE ENERGIA - EQUIPO DE UPS 3000 KVA_x0009_"/>
         <s v="PUNTO DE ACCESO INALAMBRICO - ACCESS POINT WIRELESS_x0009_"/>
         <s v="SWITCH PARA RED LAN DE 48 PUERTOS QSFP+ FIBRA"/>
-        <s v="INTERFASE TRANSCEIVER FIBRA OPTICA_x0009_"/>
+        <s v="SWITCH PARA RED DE 24 PUERTOS POE_x0009_"/>
+        <s v="TRANSCEIVER"/>
         <s v="PARLANTE (MAYOR A 1/4 UIT) DIGITAL AUTOAMPLIFICADO"/>
         <s v="PARLANTE (MAYOR A 1/4 UIT) SUBWOOFER AUTOAMPLIFICADO_x0009_"/>
         <s v="CENTRAL TELEFONICA CON TECNOLOGÍA IP NATIVA_x0009_"/>
         <s v="TELEFONO SOBRE VOZ IP PANTALLA A COLOR 10 TECLAS CONTEXTUALES_x0009_"/>
         <s v="TELEFONO SOBRE VOZ IP_x0009_"/>
         <s v="RUTEADOR DE RED - ROUTER_x0009_"/>
+        <s v="INTERFASE TRANSCEIVER FIBRA OPTICA_x0009_" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PU" numFmtId="4">
@@ -1372,7 +1456,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
   <r>
     <x v="0"/>
     <n v="497"/>
@@ -1711,7 +1795,7 @@
     <s v="Und."/>
     <n v="43"/>
     <n v="26"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="952267420001"/>
     <x v="22"/>
     <n v="3100"/>
@@ -1726,7 +1810,7 @@
     <s v="Unid"/>
     <n v="8"/>
     <n v="5"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="952281170076"/>
     <x v="23"/>
     <n v="19800"/>
@@ -1739,11 +1823,26 @@
     <n v="2"/>
     <x v="24"/>
     <s v="Unid"/>
+    <n v="8"/>
+    <n v="8"/>
+    <x v="2"/>
+    <s v="952281170088"/>
+    <x v="24"/>
+    <n v="1250"/>
+    <n v="10000"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="3"/>
+    <x v="25"/>
+    <s v="Unid"/>
     <n v="16"/>
     <n v="10"/>
-    <x v="6"/>
+    <x v="2"/>
     <s v="767500610008"/>
-    <x v="24"/>
+    <x v="25"/>
     <n v="6200"/>
     <n v="99200"/>
     <n v="62000"/>
@@ -1752,13 +1851,13 @@
     <x v="4"/>
     <m/>
     <n v="1"/>
-    <x v="25"/>
+    <x v="26"/>
     <s v="UNID."/>
     <n v="6"/>
     <n v="0"/>
     <x v="2"/>
     <s v="952260580021"/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="6900"/>
     <n v="41400"/>
     <n v="0"/>
@@ -1767,13 +1866,13 @@
     <x v="5"/>
     <m/>
     <n v="1"/>
-    <x v="26"/>
+    <x v="27"/>
     <s v="UNID."/>
     <n v="2"/>
     <n v="0"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="952260580036"/>
-    <x v="26"/>
+    <x v="27"/>
     <n v="7500"/>
     <n v="15000"/>
     <n v="0"/>
@@ -1782,13 +1881,13 @@
     <x v="6"/>
     <m/>
     <n v="1"/>
-    <x v="27"/>
+    <x v="28"/>
     <s v="UNID."/>
     <n v="1"/>
     <n v="0"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="952215610010"/>
-    <x v="27"/>
+    <x v="28"/>
     <n v="8500"/>
     <n v="8500"/>
     <n v="0"/>
@@ -1797,13 +1896,13 @@
     <x v="7"/>
     <m/>
     <n v="1"/>
-    <x v="28"/>
+    <x v="29"/>
     <s v="UNID."/>
     <n v="13"/>
     <n v="0"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="952282870040"/>
-    <x v="28"/>
+    <x v="29"/>
     <n v="2160"/>
     <n v="28080"/>
     <n v="0"/>
@@ -1812,13 +1911,13 @@
     <x v="7"/>
     <m/>
     <n v="2"/>
-    <x v="29"/>
+    <x v="30"/>
     <s v="UNID."/>
     <n v="23"/>
     <n v="0"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="952282870035"/>
-    <x v="29"/>
+    <x v="30"/>
     <n v="753"/>
     <n v="17319"/>
     <n v="0"/>
@@ -1827,13 +1926,13 @@
     <x v="8"/>
     <m/>
     <n v="1"/>
-    <x v="30"/>
+    <x v="31"/>
     <s v="UNID."/>
     <n v="1"/>
     <n v="1"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="952275360001"/>
-    <x v="30"/>
+    <x v="31"/>
     <n v="39500"/>
     <n v="39500"/>
     <n v="39500"/>
@@ -1842,8 +1941,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D56" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -1862,7 +1961,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="32">
+      <items count="33">
         <item x="22"/>
         <item x="19"/>
         <item x="10"/>
@@ -1870,7 +1969,7 @@
         <item x="5"/>
         <item x="0"/>
         <item x="8"/>
-        <item x="27"/>
+        <item x="28"/>
         <item x="2"/>
         <item x="1"/>
         <item x="12"/>
@@ -1884,16 +1983,17 @@
         <item x="16"/>
         <item x="13"/>
         <item x="14"/>
+        <item x="31"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="27"/>
+        <item x="23"/>
         <item x="30"/>
+        <item x="29"/>
+        <item x="11"/>
         <item x="25"/>
-        <item x="3"/>
-        <item x="26"/>
-        <item x="23"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="11"/>
+        <item x="21"/>
         <item x="24"/>
-        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1903,8 +2003,8 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -1923,7 +2023,7 @@
     <field x="0"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="53">
+  <rowItems count="51">
     <i>
       <x/>
     </i>
@@ -1985,46 +2085,55 @@
       <x v="28"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="24"/>
     </i>
     <i r="1">
       <x v="7"/>
     </i>
     <i r="2">
+      <x v="25"/>
+    </i>
+    <i r="2">
       <x v="29"/>
     </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
     <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="25"/>
+      <x v="31"/>
     </i>
     <i r="1">
       <x v="8"/>
@@ -2034,21 +2143,6 @@
     </i>
     <i r="2">
       <x v="27"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
     </i>
     <i>
       <x v="4"/>
@@ -2104,10 +2198,10 @@
     <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="23">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2124,8 +2218,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D75" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -2150,8 +2244,8 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -2161,7 +2255,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="32">
+      <items count="34">
         <item x="21"/>
         <item x="5"/>
         <item x="9"/>
@@ -2169,7 +2263,7 @@
         <item x="0"/>
         <item x="3"/>
         <item x="8"/>
-        <item x="27"/>
+        <item x="28"/>
         <item x="2"/>
         <item x="1"/>
         <item x="12"/>
@@ -2177,22 +2271,24 @@
         <item x="14"/>
         <item x="20"/>
         <item x="15"/>
-        <item x="24"/>
+        <item m="1" x="32"/>
         <item x="18"/>
         <item x="17"/>
-        <item x="25"/>
         <item x="26"/>
+        <item x="27"/>
         <item x="22"/>
-        <item x="30"/>
+        <item x="31"/>
         <item x="6"/>
         <item x="7"/>
         <item x="4"/>
         <item x="23"/>
-        <item x="28"/>
         <item x="29"/>
+        <item x="30"/>
         <item x="11"/>
         <item x="16"/>
         <item x="19"/>
+        <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2205,7 +2301,7 @@
     <field x="9"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="72">
+  <rowItems count="74">
     <i>
       <x/>
     </i>
@@ -2213,7 +2309,7 @@
       <x v="20"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
@@ -2222,7 +2318,7 @@
       <x v="7"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="2"/>
@@ -2369,7 +2465,7 @@
       <x v="21"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
@@ -2387,22 +2483,28 @@
       <x v="19"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="15"/>
+      <x v="25"/>
     </i>
     <i r="2">
-      <x v="1"/>
+      <x v="3"/>
     </i>
     <i r="1">
-      <x v="25"/>
+      <x v="31"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
     </i>
     <i>
       <x v="8"/>
@@ -2411,13 +2513,13 @@
       <x v="26"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="27"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2443,7 +2545,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="21">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2453,7 +2555,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2463,7 +2565,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2472,7 +2574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2481,7 +2583,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2490,7 +2592,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2513,22 +2615,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M40" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
-  <autoFilter ref="A4:M40" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+  <autoFilter ref="A4:M41" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="48">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2833,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
-  <dimension ref="A2:M40"/>
+  <dimension ref="A2:M41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2860,10 +2962,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>0</v>
@@ -2878,30 +2980,30 @@
         <v>3</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>100</v>
-      </c>
       <c r="K4" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="11">
         <v>497</v>
@@ -2922,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>20</v>
@@ -2944,7 +3046,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="14">
@@ -2963,7 +3065,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>22</v>
@@ -2975,17 +3077,17 @@
         <v>75</v>
       </c>
       <c r="L6" s="21">
-        <f t="shared" ref="L6:L40" si="0">F6*K6</f>
+        <f t="shared" ref="L6:L41" si="0">F6*K6</f>
         <v>1875</v>
       </c>
       <c r="M6" s="36">
-        <f t="shared" ref="M6:M39" si="1">K6*G6</f>
+        <f t="shared" ref="M6:M40" si="1">K6*G6</f>
         <v>1875</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="14">
@@ -3004,7 +3106,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>24</v>
@@ -3026,7 +3128,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="14">
@@ -3045,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="K8" s="21">
         <v>3200</v>
@@ -3067,7 +3169,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5">
@@ -3086,13 +3188,13 @@
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="K9" s="21">
         <v>2500</v>
@@ -3108,7 +3210,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5">
@@ -3127,13 +3229,13 @@
         <v>15</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="21">
         <v>250</v>
@@ -3149,7 +3251,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5">
@@ -3168,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>27</v>
@@ -3190,7 +3292,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5">
@@ -3209,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>28</v>
@@ -3231,7 +3333,7 @@
     </row>
     <row r="13" spans="1:13" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="5">
@@ -3250,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>30</v>
@@ -3272,7 +3374,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
@@ -3291,7 +3393,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>32</v>
@@ -3313,7 +3415,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
@@ -3332,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>35</v>
@@ -3354,7 +3456,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5">
@@ -3373,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>36</v>
@@ -3395,7 +3497,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5">
@@ -3414,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>38</v>
@@ -3436,7 +3538,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5">
@@ -3455,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>41</v>
@@ -3477,7 +3579,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5">
@@ -3496,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>42</v>
@@ -3537,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>53</v>
@@ -3578,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>56</v>
@@ -3619,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>57</v>
@@ -3660,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>59</v>
@@ -3701,13 +3803,13 @@
         <v>8</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K24" s="21">
         <v>780</v>
@@ -3742,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>63</v>
@@ -3783,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>64</v>
@@ -3824,13 +3926,13 @@
         <v>26</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="K27" s="21">
         <v>3100</v>
@@ -3865,7 +3967,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>73</v>
@@ -3894,114 +3996,114 @@
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G29" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="K29" s="21">
-        <v>6200</v>
+        <v>1250</v>
       </c>
       <c r="L29" s="21">
         <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="M29" s="36">
+        <f>K29*G29</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="8">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="8">
+        <v>16</v>
+      </c>
+      <c r="G30" s="8">
+        <v>10</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="21">
+        <v>6200</v>
+      </c>
+      <c r="L30" s="21">
+        <f t="shared" si="0"/>
         <v>99200</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M30" s="36">
         <f t="shared" si="1"/>
         <v>62000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="11">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="8">
-        <v>6</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="21">
-        <v>6900</v>
-      </c>
-      <c r="L30" s="21">
-        <f t="shared" si="0"/>
-        <v>41400</v>
-      </c>
-      <c r="M30" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="11">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K31" s="21">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="L31" s="21">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>41400</v>
       </c>
       <c r="M31" s="36">
         <f t="shared" si="1"/>
@@ -4009,40 +4111,40 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>83</v>
+      <c r="A32" s="33" t="s">
+        <v>79</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="11">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K32" s="21">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L32" s="21">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M32" s="36">
         <f t="shared" si="1"/>
@@ -4051,39 +4153,39 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="11">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G33" s="8">
         <v>0</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K33" s="21">
-        <v>2160</v>
+        <v>8500</v>
       </c>
       <c r="L33" s="21">
         <f t="shared" si="0"/>
-        <v>28080</v>
+        <v>8500</v>
       </c>
       <c r="M33" s="36">
         <f t="shared" si="1"/>
@@ -4092,39 +4194,39 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G34" s="8">
         <v>0</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" s="21">
-        <v>753</v>
+        <v>2160</v>
       </c>
       <c r="L34" s="21">
         <f t="shared" si="0"/>
-        <v>17319</v>
+        <v>28080</v>
       </c>
       <c r="M34" s="36">
         <f t="shared" si="1"/>
@@ -4132,252 +4234,294 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>93</v>
+      <c r="A35" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="11">
-        <v>1</v>
+      <c r="C35" s="8">
+        <v>2</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K35" s="21">
-        <v>39500</v>
+        <v>753</v>
       </c>
       <c r="L35" s="21">
         <f t="shared" si="0"/>
-        <v>39500</v>
+        <v>17319</v>
       </c>
       <c r="M35" s="36">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="11">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="21">
         <v>39500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="8">
-        <v>150</v>
-      </c>
-      <c r="G36" s="8">
-        <v>150</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K36" s="21">
-        <v>35</v>
       </c>
       <c r="L36" s="21">
         <f t="shared" si="0"/>
-        <v>5250</v>
+        <v>39500</v>
       </c>
       <c r="M36" s="36">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F37" s="8">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G37" s="8">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K37" s="21">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="L37" s="21">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>5250</v>
       </c>
       <c r="M37" s="36">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G38" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K38" s="21">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="L38" s="21">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>170</v>
       </c>
       <c r="M38" s="36">
         <f t="shared" si="1"/>
-        <v>960</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47">
-        <v>4</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="47">
-        <v>500</v>
-      </c>
-      <c r="G39" s="47">
-        <v>500</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="K39" s="50">
-        <v>0.1</v>
+      <c r="E39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="8">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8">
+        <v>20</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="21">
+        <v>48</v>
       </c>
       <c r="L39" s="21">
         <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="M39" s="36">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47">
+        <v>4</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="47">
+        <v>500</v>
+      </c>
+      <c r="G40" s="47">
+        <v>500</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="L40" s="21">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M39" s="51">
+      <c r="M40" s="51">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8">
         <v>5</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D41" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="8">
         <v>20</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>20</v>
       </c>
-      <c r="H40" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K40" s="21">
+      <c r="H41" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K41" s="21">
         <v>15</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L41" s="21">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="M40" s="36">
-        <f>K40*G40</f>
+      <c r="M41" s="36">
+        <f>K41*G41</f>
         <v>300</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
@@ -4391,13 +4535,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
   <dimension ref="A3:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
@@ -4407,21 +4551,21 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="12">
         <v>32160</v>
@@ -4477,7 +4621,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="12">
         <v>23800</v>
@@ -4701,118 +4845,118 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B24" s="12">
-        <v>62000</v>
+        <v>300700</v>
       </c>
       <c r="C24" s="12">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D24" s="12">
-        <v>6200</v>
+        <v>98063</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" s="12">
-        <v>62000</v>
+        <v>80600</v>
       </c>
       <c r="C25" s="12">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D25" s="12">
-        <v>6200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B26" s="12">
-        <v>62000</v>
+        <v>80600</v>
       </c>
       <c r="C26" s="12">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D26" s="12">
-        <v>6200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>114</v>
+      <c r="A27" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="B27" s="12">
-        <v>219100</v>
+        <v>0</v>
       </c>
       <c r="C27" s="12">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D27" s="12">
-        <v>81313</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>67</v>
+      <c r="A28" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="B28" s="12">
-        <v>80600</v>
+        <v>0</v>
       </c>
       <c r="C28" s="12">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D28" s="12">
-        <v>3100</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>67</v>
+      <c r="A29" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="B29" s="12">
-        <v>80600</v>
+        <v>9600</v>
       </c>
       <c r="C29" s="12">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D29" s="12">
-        <v>3100</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>83</v>
+      <c r="A30" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="B30" s="12">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="C30" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30" s="12">
-        <v>8500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>83</v>
+      <c r="A31" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="B31" s="12">
-        <v>0</v>
+        <v>39500</v>
       </c>
       <c r="C31" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="12">
-        <v>8500</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="12">
@@ -4826,22 +4970,22 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>94</v>
+      <c r="A33" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="B33" s="12">
-        <v>39500</v>
+        <v>0</v>
       </c>
       <c r="C33" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="12">
-        <v>39500</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>80</v>
+      <c r="A34" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
@@ -4850,12 +4994,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="12">
-        <v>7500</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>80</v>
+      <c r="A35" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="B35" s="12">
         <v>0</v>
@@ -4868,204 +5012,204 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B37" s="12">
+        <v>171000</v>
+      </c>
+      <c r="C37" s="12">
+        <v>23</v>
+      </c>
+      <c r="D37" s="12">
+        <v>27250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="12">
         <v>99000</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C38" s="12">
         <v>5</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D38" s="12">
         <v>19800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="12">
-        <v>99000</v>
-      </c>
-      <c r="C37" s="12">
-        <v>5</v>
-      </c>
-      <c r="D37" s="12">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="12">
-        <v>0</v>
-      </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="12">
-        <v>2913</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B39" s="12">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="C39" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D39" s="12">
-        <v>753</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="12">
+        <v>8</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="12">
-        <v>0</v>
-      </c>
-      <c r="C40" s="12">
-        <v>0</v>
-      </c>
-      <c r="D40" s="12">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="12">
-        <v>9600</v>
-      </c>
-      <c r="C41" s="12">
-        <v>4</v>
-      </c>
-      <c r="D41" s="12">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="B42" s="12">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="C42" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D42" s="12">
-        <v>2400</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B43" s="12">
-        <v>9600</v>
+        <v>0</v>
       </c>
       <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="12">
+        <v>14640</v>
+      </c>
+      <c r="C44" s="12">
+        <v>12</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="12">
+        <v>14640</v>
+      </c>
+      <c r="C45" s="12">
+        <v>12</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="12">
+        <v>6240</v>
+      </c>
+      <c r="C46" s="12">
+        <v>8</v>
+      </c>
+      <c r="D46" s="12">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="12">
+        <v>8400</v>
+      </c>
+      <c r="C47" s="12">
         <v>4</v>
       </c>
-      <c r="D43" s="12">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="12">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12">
-        <v>0</v>
-      </c>
-      <c r="D44" s="12">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="12">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12">
-        <v>0</v>
-      </c>
-      <c r="D45" s="12">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="D47" s="12">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="12">
-        <v>14640</v>
-      </c>
-      <c r="C46" s="12">
-        <v>12</v>
-      </c>
-      <c r="D46" s="12">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="B48" s="12">
+        <v>28400</v>
+      </c>
+      <c r="C48" s="12">
+        <v>4</v>
+      </c>
+      <c r="D48" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="12">
-        <v>14640</v>
-      </c>
-      <c r="C47" s="12">
-        <v>12</v>
-      </c>
-      <c r="D47" s="12">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="12">
-        <v>6240</v>
-      </c>
-      <c r="C48" s="12">
-        <v>8</v>
-      </c>
-      <c r="D48" s="12">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>51</v>
-      </c>
       <c r="B49" s="12">
-        <v>8400</v>
+        <v>28400</v>
       </c>
       <c r="C49" s="12">
         <v>4</v>
       </c>
       <c r="D49" s="12">
-        <v>2100</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
-        <v>113</v>
+      <c r="A50" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="B50" s="12">
         <v>28400</v>
@@ -5078,36 +5222,36 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
-        <v>66</v>
+      <c r="A51" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="B51" s="12">
-        <v>28400</v>
+        <v>32800</v>
       </c>
       <c r="C51" s="12">
         <v>4</v>
       </c>
       <c r="D51" s="12">
-        <v>7100</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
-        <v>52</v>
+      <c r="A52" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="B52" s="12">
-        <v>28400</v>
+        <v>32800</v>
       </c>
       <c r="C52" s="12">
         <v>4</v>
       </c>
       <c r="D52" s="12">
-        <v>7100</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>108</v>
+      <c r="A53" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="B53" s="12">
         <v>32800</v>
@@ -5120,46 +5264,24 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
-        <v>66</v>
+      <c r="A54" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B54" s="12">
-        <v>32800</v>
+        <v>408700</v>
       </c>
       <c r="C54" s="12">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="D54" s="12">
-        <v>8200</v>
+        <v>126293</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="12">
-        <v>32800</v>
-      </c>
-      <c r="C55" s="12">
-        <v>4</v>
-      </c>
-      <c r="D55" s="12">
-        <v>8200</v>
-      </c>
+      <c r="B55"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="12">
-        <v>398700</v>
-      </c>
-      <c r="C56" s="12">
-        <v>180</v>
-      </c>
-      <c r="D56" s="12">
-        <v>125043</v>
-      </c>
+      <c r="B56"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57"/>
@@ -5223,10 +5345,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:D75"/>
+  <dimension ref="A3:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5239,16 +5361,16 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5267,7 +5389,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="52">
         <v>26</v>
@@ -5281,7 +5403,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B6" s="52">
         <v>26</v>
@@ -5295,7 +5417,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="52">
         <v>0</v>
@@ -5309,7 +5431,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="52">
         <v>0</v>
@@ -5323,7 +5445,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B9" s="52">
         <v>0</v>
@@ -5365,7 +5487,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="52">
         <v>4</v>
@@ -5393,7 +5515,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="52">
         <v>4</v>
@@ -5421,7 +5543,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="52">
         <v>4</v>
@@ -5449,7 +5571,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="52">
         <v>4</v>
@@ -5477,7 +5599,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="52">
         <v>12</v>
@@ -5505,7 +5627,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="52">
         <v>4</v>
@@ -5519,7 +5641,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="52">
         <v>8</v>
@@ -5533,7 +5655,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="52">
         <v>8</v>
@@ -5547,7 +5669,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="52">
         <v>98</v>
@@ -5561,7 +5683,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="52">
         <v>15</v>
@@ -5575,7 +5697,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="52">
         <v>15</v>
@@ -5603,7 +5725,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" s="52">
         <v>6</v>
@@ -5631,7 +5753,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="52">
         <v>3</v>
@@ -5659,7 +5781,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="52">
         <v>2</v>
@@ -5673,7 +5795,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="52">
         <v>1</v>
@@ -5687,7 +5809,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="52">
         <v>1</v>
@@ -5715,7 +5837,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="52">
         <v>3</v>
@@ -5743,7 +5865,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="52">
         <v>25</v>
@@ -5771,7 +5893,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="52">
         <v>25</v>
@@ -5799,7 +5921,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="52">
         <v>12</v>
@@ -5827,7 +5949,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="52">
         <v>0</v>
@@ -5855,7 +5977,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="52">
         <v>0</v>
@@ -5883,7 +6005,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="52">
         <v>2</v>
@@ -5911,7 +6033,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="52">
         <v>2</v>
@@ -5925,7 +6047,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="52">
         <v>2</v>
@@ -5939,7 +6061,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" s="52">
         <v>2</v>
@@ -5967,7 +6089,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="52">
         <v>0</v>
@@ -5981,7 +6103,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="52">
         <v>1</v>
@@ -5995,7 +6117,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="52">
         <v>1</v>
@@ -6009,7 +6131,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B58" s="52">
         <v>1</v>
@@ -6023,7 +6145,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="52">
         <v>0</v>
@@ -6037,7 +6159,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="52">
         <v>0</v>
@@ -6051,7 +6173,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" s="52">
         <v>0</v>
@@ -6065,7 +6187,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="52">
         <v>0</v>
@@ -6079,7 +6201,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="52">
         <v>0</v>
@@ -6093,7 +6215,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B64" s="52">
         <v>0</v>
@@ -6110,108 +6232,108 @@
         <v>69</v>
       </c>
       <c r="B65" s="52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C65" s="12">
-        <v>26000</v>
+        <v>27250</v>
       </c>
       <c r="D65" s="12">
-        <v>161000</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C66" s="12">
-        <v>6200</v>
+        <v>19800</v>
       </c>
       <c r="D66" s="12">
-        <v>62000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B67" s="52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" s="12">
-        <v>6200</v>
+        <v>19800</v>
       </c>
       <c r="D67" s="12">
-        <v>62000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B68" s="52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" s="12">
-        <v>19800</v>
+        <v>1250</v>
       </c>
       <c r="D68" s="12">
-        <v>99000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B69" s="52">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" s="12">
-        <v>19800</v>
+        <v>1250</v>
       </c>
       <c r="D69" s="12">
-        <v>99000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
-        <v>86</v>
+      <c r="A70" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="B70" s="52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C70" s="12">
+        <v>6200</v>
+      </c>
+      <c r="D70" s="12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="52">
+        <v>10</v>
+      </c>
+      <c r="C71" s="12">
+        <v>6200</v>
+      </c>
+      <c r="D71" s="12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="52">
+        <v>0</v>
+      </c>
+      <c r="C72" s="12">
         <v>2913</v>
-      </c>
-      <c r="D70" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="52">
-        <v>0</v>
-      </c>
-      <c r="C71" s="12">
-        <v>2160</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="52">
-        <v>0</v>
-      </c>
-      <c r="C72" s="12">
-        <v>2160</v>
       </c>
       <c r="D72" s="12">
         <v>0</v>
@@ -6219,13 +6341,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="52">
         <v>0</v>
       </c>
       <c r="C73" s="12">
-        <v>753</v>
+        <v>2160</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
@@ -6233,30 +6355,58 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B74" s="52">
         <v>0</v>
       </c>
       <c r="C74" s="12">
+        <v>2160</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="52">
+        <v>0</v>
+      </c>
+      <c r="C75" s="12">
         <v>753</v>
       </c>
-      <c r="D74" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="52">
-        <v>180</v>
-      </c>
-      <c r="C75" s="12">
-        <v>125043</v>
-      </c>
       <c r="D75" s="12">
-        <v>398700</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="52">
+        <v>0</v>
+      </c>
+      <c r="C76" s="12">
+        <v>753</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="52">
+        <v>188</v>
+      </c>
+      <c r="C77" s="12">
+        <v>126293</v>
+      </c>
+      <c r="D77" s="12">
+        <v>408700</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3A334A-82CE-4F12-8C41-F8061B58EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F438C-5163-4F5B-88E4-F052F3C00393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="146">
   <si>
     <t>ITEM</t>
   </si>
@@ -876,7 +876,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="38">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -894,84 +894,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1317,7 +1239,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45355.45783078704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45357.357714120371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M36" sheet="PEDIDOS"/>
   </cacheSource>
@@ -1941,7 +1863,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2198,10 +2120,10 @@
     <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="47">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2218,20 +2140,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D77" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
-        <item x="2"/>
-        <item x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="6"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2301,225 +2223,51 @@
     <field x="9"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="74">
+  <rowItems count="16">
     <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
     <i r="1">
-      <x v="20"/>
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="29"/>
     </i>
     <i r="2">
       <x v="3"/>
     </i>
-    <i>
-      <x v="1"/>
-    </i>
     <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
+      <x v="30"/>
     </i>
     <i r="2">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2545,7 +2293,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="45">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2555,7 +2303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2565,7 +2313,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2574,7 +2322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2583,7 +2331,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2592,7 +2340,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2615,22 +2363,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A4:M41" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="22">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2937,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
   <dimension ref="A2:M41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4535,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
   <dimension ref="A3:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5347,13 +5095,13 @@
   </sheetPr>
   <dimension ref="A3:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="143.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
@@ -5375,1039 +5123,517 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="52">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4" s="12">
-        <v>3100</v>
+        <v>21770</v>
       </c>
       <c r="D4" s="12">
-        <v>80600</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B5" s="52">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C5" s="12">
-        <v>3100</v>
+        <v>7100</v>
       </c>
       <c r="D5" s="12">
-        <v>80600</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B6" s="52">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12">
-        <v>3100</v>
+        <v>7100</v>
       </c>
       <c r="D6" s="12">
-        <v>80600</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>82</v>
+      <c r="A7" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="B7" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="12">
-        <v>8500</v>
+        <v>2100</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>84</v>
+      <c r="A8" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="B8" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="12">
-        <v>8500</v>
+        <v>2100</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>108</v>
+      <c r="A9" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="12">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>32800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>66</v>
+      <c r="A10" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="B10" s="52">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C10" s="12">
-        <v>21770</v>
+        <v>8200</v>
       </c>
       <c r="D10" s="12">
-        <v>93800</v>
+        <v>32800</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="52">
         <v>4</v>
       </c>
       <c r="C11" s="12">
-        <v>7100</v>
+        <v>740</v>
       </c>
       <c r="D11" s="12">
-        <v>28400</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12" s="52">
         <v>4</v>
       </c>
       <c r="C12" s="12">
-        <v>7100</v>
+        <v>740</v>
       </c>
       <c r="D12" s="12">
-        <v>28400</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C13" s="12">
-        <v>2100</v>
+        <v>450</v>
       </c>
       <c r="D13" s="12">
-        <v>8400</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="52">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12">
-        <v>2100</v>
+        <v>450</v>
       </c>
       <c r="D14" s="12">
-        <v>8400</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="52">
         <v>4</v>
       </c>
       <c r="C15" s="12">
-        <v>8200</v>
+        <v>2400</v>
       </c>
       <c r="D15" s="12">
-        <v>32800</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="52">
         <v>4</v>
       </c>
       <c r="C16" s="12">
-        <v>8200</v>
+        <v>2400</v>
       </c>
       <c r="D16" s="12">
-        <v>32800</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B17" s="52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" s="12">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="D17" s="12">
-        <v>2960</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" s="12">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="D18" s="12">
-        <v>2960</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>58</v>
+      <c r="A19" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B19" s="52">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C19" s="12">
-        <v>450</v>
+        <v>21770</v>
       </c>
       <c r="D19" s="12">
-        <v>5400</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="52">
-        <v>12</v>
-      </c>
-      <c r="C20" s="12">
-        <v>450</v>
-      </c>
-      <c r="D20" s="12">
-        <v>5400</v>
-      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="52">
-        <v>4</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2400</v>
-      </c>
-      <c r="D21" s="12">
-        <v>9600</v>
-      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="52">
-        <v>4</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2400</v>
-      </c>
-      <c r="D22" s="12">
-        <v>9600</v>
-      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="52">
-        <v>8</v>
-      </c>
-      <c r="C23" s="12">
-        <v>780</v>
-      </c>
-      <c r="D23" s="12">
-        <v>6240</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="52">
-        <v>8</v>
-      </c>
-      <c r="C24" s="12">
-        <v>780</v>
-      </c>
-      <c r="D24" s="12">
-        <v>6240</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="52">
-        <v>98</v>
-      </c>
-      <c r="C25" s="12">
-        <v>8860</v>
-      </c>
-      <c r="D25" s="12">
-        <v>23800</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="52">
-        <v>15</v>
-      </c>
-      <c r="C26" s="12">
-        <v>250</v>
-      </c>
-      <c r="D26" s="12">
-        <v>3750</v>
-      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="52">
-        <v>15</v>
-      </c>
-      <c r="C27" s="12">
-        <v>250</v>
-      </c>
-      <c r="D27" s="12">
-        <v>3750</v>
-      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="52">
-        <v>6</v>
-      </c>
-      <c r="C28" s="12">
-        <v>250</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1500</v>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="52">
-        <v>6</v>
-      </c>
-      <c r="C29" s="12">
-        <v>250</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1500</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="52">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12">
-        <v>720</v>
-      </c>
-      <c r="D30" s="12">
-        <v>2160</v>
-      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="52">
-        <v>3</v>
-      </c>
-      <c r="C31" s="12">
-        <v>720</v>
-      </c>
-      <c r="D31" s="12">
-        <v>2160</v>
-      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="52">
-        <v>2</v>
-      </c>
-      <c r="C32" s="12">
-        <v>750</v>
-      </c>
-      <c r="D32" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="52">
-        <v>2</v>
-      </c>
-      <c r="C33" s="12">
-        <v>750</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="52">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12">
-        <v>3200</v>
-      </c>
-      <c r="D34" s="12">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="52">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12">
-        <v>3200</v>
-      </c>
-      <c r="D35" s="12">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="52">
-        <v>3</v>
-      </c>
-      <c r="C36" s="12">
-        <v>750</v>
-      </c>
-      <c r="D36" s="12">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="52">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12">
-        <v>750</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="52">
-        <v>25</v>
-      </c>
-      <c r="C38" s="12">
-        <v>75</v>
-      </c>
-      <c r="D38" s="12">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="52">
-        <v>25</v>
-      </c>
-      <c r="C39" s="12">
-        <v>75</v>
-      </c>
-      <c r="D39" s="12">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="52">
-        <v>25</v>
-      </c>
-      <c r="C40" s="12">
-        <v>75</v>
-      </c>
-      <c r="D40" s="12">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="52">
-        <v>25</v>
-      </c>
-      <c r="C41" s="12">
-        <v>75</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="52">
-        <v>12</v>
-      </c>
-      <c r="C42" s="12">
-        <v>48</v>
-      </c>
-      <c r="D42" s="12">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="52">
-        <v>12</v>
-      </c>
-      <c r="C43" s="12">
-        <v>48</v>
-      </c>
-      <c r="D43" s="12">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="52">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12">
-        <v>75</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="52">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12">
-        <v>75</v>
-      </c>
-      <c r="D45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="52">
-        <v>0</v>
-      </c>
-      <c r="C46" s="12">
-        <v>75</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="52">
-        <v>0</v>
-      </c>
-      <c r="C47" s="12">
-        <v>75</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="52">
-        <v>2</v>
-      </c>
-      <c r="C48" s="12">
-        <v>45</v>
-      </c>
-      <c r="D48" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="52">
-        <v>2</v>
-      </c>
-      <c r="C49" s="12">
-        <v>45</v>
-      </c>
-      <c r="D49" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="52">
-        <v>2</v>
-      </c>
-      <c r="C50" s="12">
-        <v>12</v>
-      </c>
-      <c r="D50" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="52">
-        <v>2</v>
-      </c>
-      <c r="C51" s="12">
-        <v>12</v>
-      </c>
-      <c r="D51" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="52">
-        <v>2</v>
-      </c>
-      <c r="C52" s="12">
-        <v>2500</v>
-      </c>
-      <c r="D52" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="52">
-        <v>2</v>
-      </c>
-      <c r="C53" s="12">
-        <v>2500</v>
-      </c>
-      <c r="D53" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="52">
-        <v>0</v>
-      </c>
-      <c r="C54" s="12">
-        <v>35</v>
-      </c>
-      <c r="D54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="52">
-        <v>0</v>
-      </c>
-      <c r="C55" s="12">
-        <v>35</v>
-      </c>
-      <c r="D55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="52">
-        <v>1</v>
-      </c>
-      <c r="C56" s="12">
-        <v>39500</v>
-      </c>
-      <c r="D56" s="12">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="52">
-        <v>1</v>
-      </c>
-      <c r="C57" s="12">
-        <v>39500</v>
-      </c>
-      <c r="D57" s="12">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="52">
-        <v>1</v>
-      </c>
-      <c r="C58" s="12">
-        <v>39500</v>
-      </c>
-      <c r="D58" s="12">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="52">
-        <v>0</v>
-      </c>
-      <c r="C59" s="12">
-        <v>6900</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="52">
-        <v>0</v>
-      </c>
-      <c r="C60" s="12">
-        <v>6900</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="52">
-        <v>0</v>
-      </c>
-      <c r="C61" s="12">
-        <v>6900</v>
-      </c>
-      <c r="D61" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="52">
-        <v>0</v>
-      </c>
-      <c r="C62" s="12">
-        <v>7500</v>
-      </c>
-      <c r="D62" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="52">
-        <v>0</v>
-      </c>
-      <c r="C63" s="12">
-        <v>7500</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="52">
-        <v>0</v>
-      </c>
-      <c r="C64" s="12">
-        <v>7500</v>
-      </c>
-      <c r="D64" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="52">
-        <v>23</v>
-      </c>
-      <c r="C65" s="12">
-        <v>27250</v>
-      </c>
-      <c r="D65" s="12">
-        <v>171000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="52">
-        <v>5</v>
-      </c>
-      <c r="C66" s="12">
-        <v>19800</v>
-      </c>
-      <c r="D66" s="12">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="52">
-        <v>5</v>
-      </c>
-      <c r="C67" s="12">
-        <v>19800</v>
-      </c>
-      <c r="D67" s="12">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="52">
-        <v>8</v>
-      </c>
-      <c r="C68" s="12">
-        <v>1250</v>
-      </c>
-      <c r="D68" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="52">
-        <v>8</v>
-      </c>
-      <c r="C69" s="12">
-        <v>1250</v>
-      </c>
-      <c r="D69" s="12">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="52">
-        <v>10</v>
-      </c>
-      <c r="C70" s="12">
-        <v>6200</v>
-      </c>
-      <c r="D70" s="12">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B71" s="52">
-        <v>10</v>
-      </c>
-      <c r="C71" s="12">
-        <v>6200</v>
-      </c>
-      <c r="D71" s="12">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="52">
-        <v>0</v>
-      </c>
-      <c r="C72" s="12">
-        <v>2913</v>
-      </c>
-      <c r="D72" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="52">
-        <v>0</v>
-      </c>
-      <c r="C73" s="12">
-        <v>2160</v>
-      </c>
-      <c r="D73" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="52">
-        <v>0</v>
-      </c>
-      <c r="C74" s="12">
-        <v>2160</v>
-      </c>
-      <c r="D74" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="52">
-        <v>0</v>
-      </c>
-      <c r="C75" s="12">
-        <v>753</v>
-      </c>
-      <c r="D75" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="52">
-        <v>0</v>
-      </c>
-      <c r="C76" s="12">
-        <v>753</v>
-      </c>
-      <c r="D76" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="52">
-        <v>188</v>
-      </c>
-      <c r="C77" s="12">
-        <v>126293</v>
-      </c>
-      <c r="D77" s="12">
-        <v>408700</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F438C-5163-4F5B-88E4-F052F3C00393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A25D8-BABA-4032-BAD2-B31CEDFE3248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="146">
   <si>
     <t>ITEM</t>
   </si>
@@ -876,7 +876,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="108">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -902,6 +944,84 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
@@ -920,16 +1040,106 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1239,7 +1449,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45357.357714120371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45365.39671458333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M36" sheet="PEDIDOS"/>
   </cacheSource>
@@ -1863,20 +2073,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D54" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="2"/>
-        <item x="6"/>
+        <item h="1" x="6"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="8"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item x="3"/>
-        <item x="7"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1899,6 +2109,7 @@
         <item x="20"/>
         <item x="4"/>
         <item x="15"/>
+        <item x="24"/>
         <item x="17"/>
         <item x="18"/>
         <item x="7"/>
@@ -1915,13 +2126,12 @@
         <item x="11"/>
         <item x="25"/>
         <item x="21"/>
-        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
         <item x="0"/>
@@ -1936,7 +2146,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
     <pivotField numFmtId="4" showAll="0"/>
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
@@ -1945,7 +2155,7 @@
     <field x="0"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="51">
+  <rowItems count="24">
     <i>
       <x/>
     </i>
@@ -1953,58 +2163,10 @@
       <x v="2"/>
     </i>
     <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="2">
       <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
     </i>
     <i r="2">
       <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="28"/>
     </i>
     <i>
       <x v="3"/>
@@ -2016,55 +2178,22 @@
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="1">
       <x v="2"/>
     </i>
     <i r="2">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="24"/>
+      <x v="19"/>
     </i>
     <i r="1">
       <x v="7"/>
     </i>
     <i r="2">
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
+      <x v="15"/>
     </i>
     <i r="2">
       <x v="26"/>
     </i>
     <i r="2">
-      <x v="27"/>
+      <x v="30"/>
     </i>
     <i>
       <x v="4"/>
@@ -2085,7 +2214,7 @@
       <x v="2"/>
     </i>
     <i r="2">
-      <x v="30"/>
+      <x v="31"/>
     </i>
     <i>
       <x v="6"/>
@@ -2100,30 +2229,17 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="1">
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
-    <dataField name="Suma de CANT. PED" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="21">
+    <format dxfId="91">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2140,19 +2256,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item h="1" x="6"/>
         <item x="1"/>
         <item h="1" x="0"/>
         <item h="1" x="8"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="7"/>
         <item t="default"/>
       </items>
@@ -2223,7 +2339,16 @@
     <field x="9"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -2269,6 +2394,27 @@
     <i r="2">
       <x v="4"/>
     </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2293,7 +2439,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="19">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2303,7 +2449,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2313,7 +2459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2322,7 +2468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2331,7 +2477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2340,7 +2486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2363,22 +2509,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
   <autoFilter ref="A4:M41" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="97"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="92">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2685,7 +2831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
   <dimension ref="A2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4281,778 +4427,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
-  <dimension ref="A3:D73"/>
+  <dimension ref="A3:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="12">
-        <v>32160</v>
-      </c>
-      <c r="C4" s="12">
-        <v>114</v>
-      </c>
-      <c r="D4" s="12">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="12">
         <v>8360</v>
       </c>
-      <c r="C5" s="12">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="12">
         <v>5400</v>
       </c>
-      <c r="C6" s="12">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="12">
         <v>2960</v>
       </c>
-      <c r="C7" s="12">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>118</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="B8" s="12">
-        <v>23800</v>
-      </c>
-      <c r="C8" s="12">
-        <v>98</v>
-      </c>
-      <c r="D8" s="12">
-        <v>8860</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>15</v>
+        <v>261200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="B9" s="12">
-        <v>2160</v>
-      </c>
-      <c r="C9" s="12">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B10" s="12">
-        <v>1500</v>
-      </c>
-      <c r="C10" s="12">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>10</v>
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="B11" s="12">
-        <v>3750</v>
-      </c>
-      <c r="C11" s="12">
-        <v>15</v>
-      </c>
-      <c r="D11" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B12" s="12">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>13</v>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="12">
-        <v>2250</v>
-      </c>
-      <c r="C13" s="12">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="B14" s="12">
-        <v>1875</v>
-      </c>
-      <c r="C14" s="12">
-        <v>25</v>
-      </c>
-      <c r="D14" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B15" s="12">
-        <v>1875</v>
-      </c>
-      <c r="C15" s="12">
-        <v>25</v>
-      </c>
-      <c r="D15" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B16" s="12">
-        <v>576</v>
-      </c>
-      <c r="C16" s="12">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>11</v>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="B17" s="12">
-        <v>90</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>9</v>
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="12">
-        <v>5000</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B19" s="12">
-        <v>24</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>19</v>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>8</v>
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="B22" s="12">
-        <v>3200</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="12">
-        <v>300700</v>
-      </c>
-      <c r="C24" s="12">
-        <v>54</v>
-      </c>
-      <c r="D24" s="12">
-        <v>98063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="12">
-        <v>80600</v>
-      </c>
-      <c r="C25" s="12">
-        <v>26</v>
-      </c>
-      <c r="D25" s="12">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B26" s="12">
-        <v>80600</v>
-      </c>
-      <c r="C26" s="12">
-        <v>26</v>
-      </c>
-      <c r="D26" s="12">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>82</v>
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B27" s="12">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="12">
-        <v>0</v>
-      </c>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="12">
-        <v>9600</v>
-      </c>
-      <c r="C29" s="12">
-        <v>4</v>
-      </c>
-      <c r="D29" s="12">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="12">
-        <v>9600</v>
-      </c>
-      <c r="C30" s="12">
-        <v>4</v>
-      </c>
-      <c r="D30" s="12">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="12">
-        <v>39500</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="12">
-        <v>39500</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="12">
-        <v>0</v>
-      </c>
-      <c r="C33" s="12">
-        <v>0</v>
-      </c>
-      <c r="D33" s="12">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="12">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="12">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12">
-        <v>0</v>
-      </c>
-      <c r="D35" s="12">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="12">
-        <v>0</v>
-      </c>
-      <c r="C36" s="12">
-        <v>0</v>
-      </c>
-      <c r="D36" s="12">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="12">
-        <v>171000</v>
-      </c>
-      <c r="C37" s="12">
-        <v>23</v>
-      </c>
-      <c r="D37" s="12">
-        <v>27250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="12">
-        <v>99000</v>
-      </c>
-      <c r="C38" s="12">
-        <v>5</v>
-      </c>
-      <c r="D38" s="12">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="12">
-        <v>62000</v>
-      </c>
-      <c r="C39" s="12">
-        <v>10</v>
-      </c>
-      <c r="D39" s="12">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="12">
-        <v>10000</v>
-      </c>
-      <c r="C40" s="12">
-        <v>8</v>
-      </c>
-      <c r="D40" s="12">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="12">
-        <v>0</v>
-      </c>
-      <c r="C41" s="12">
-        <v>0</v>
-      </c>
-      <c r="D41" s="12">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="12">
-        <v>0</v>
-      </c>
-      <c r="C42" s="12">
-        <v>0</v>
-      </c>
-      <c r="D42" s="12">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="12">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0</v>
-      </c>
-      <c r="D43" s="12">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="12">
-        <v>14640</v>
-      </c>
-      <c r="C44" s="12">
-        <v>12</v>
-      </c>
-      <c r="D44" s="12">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="12">
-        <v>14640</v>
-      </c>
-      <c r="C45" s="12">
-        <v>12</v>
-      </c>
-      <c r="D45" s="12">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="12">
-        <v>6240</v>
-      </c>
-      <c r="C46" s="12">
-        <v>8</v>
-      </c>
-      <c r="D46" s="12">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="12">
-        <v>8400</v>
-      </c>
-      <c r="C47" s="12">
-        <v>4</v>
-      </c>
-      <c r="D47" s="12">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="12">
-        <v>28400</v>
-      </c>
-      <c r="C48" s="12">
-        <v>4</v>
-      </c>
-      <c r="D48" s="12">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="12">
-        <v>28400</v>
-      </c>
-      <c r="C49" s="12">
-        <v>4</v>
-      </c>
-      <c r="D49" s="12">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="12">
-        <v>28400</v>
-      </c>
-      <c r="C50" s="12">
-        <v>4</v>
-      </c>
-      <c r="D50" s="12">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="12">
-        <v>32800</v>
-      </c>
-      <c r="C51" s="12">
-        <v>4</v>
-      </c>
-      <c r="D51" s="12">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="12">
-        <v>32800</v>
-      </c>
-      <c r="C52" s="12">
-        <v>4</v>
-      </c>
-      <c r="D52" s="12">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="12">
-        <v>32800</v>
-      </c>
-      <c r="C53" s="12">
-        <v>4</v>
-      </c>
-      <c r="D53" s="12">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="12">
-        <v>408700</v>
-      </c>
-      <c r="C54" s="12">
-        <v>188</v>
-      </c>
-      <c r="D54" s="12">
-        <v>126293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>345400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -5095,8 +4794,8 @@
   </sheetPr>
   <dimension ref="A3:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,6 +4804,7 @@
     <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5123,277 +4823,367 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="52">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12">
-        <v>21770</v>
+        <v>3100</v>
       </c>
       <c r="D4" s="12">
-        <v>93800</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B5" s="52">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12">
-        <v>7100</v>
+        <v>3100</v>
       </c>
       <c r="D5" s="12">
-        <v>28400</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" s="52">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C6" s="12">
-        <v>7100</v>
+        <v>3100</v>
       </c>
       <c r="D6" s="12">
-        <v>28400</v>
+        <v>80600</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>62</v>
+      <c r="A7" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="B7" s="52">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C7" s="12">
-        <v>2100</v>
+        <v>21770</v>
       </c>
       <c r="D7" s="12">
-        <v>8400</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>111</v>
+      <c r="A8" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="52">
         <v>4</v>
       </c>
       <c r="C8" s="12">
-        <v>2100</v>
+        <v>7100</v>
       </c>
       <c r="D8" s="12">
-        <v>8400</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>54</v>
+      <c r="A9" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="B9" s="52">
         <v>4</v>
       </c>
       <c r="C9" s="12">
-        <v>8200</v>
+        <v>7100</v>
       </c>
       <c r="D9" s="12">
-        <v>32800</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>107</v>
+      <c r="A10" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="B10" s="52">
         <v>4</v>
       </c>
       <c r="C10" s="12">
-        <v>8200</v>
+        <v>2100</v>
       </c>
       <c r="D10" s="12">
-        <v>32800</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>60</v>
+      <c r="A11" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="B11" s="52">
         <v>4</v>
       </c>
       <c r="C11" s="12">
-        <v>740</v>
+        <v>2100</v>
       </c>
       <c r="D11" s="12">
-        <v>2960</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>109</v>
+      <c r="A12" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="52">
         <v>4</v>
       </c>
       <c r="C12" s="12">
+        <v>8200</v>
+      </c>
+      <c r="D12" s="12">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="52">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12">
+        <v>8200</v>
+      </c>
+      <c r="D13" s="12">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="52">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12">
         <v>740</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D14" s="12">
         <v>2960</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="52">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12">
-        <v>450</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" s="52">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12">
-        <v>450</v>
-      </c>
-      <c r="D14" s="12">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="B15" s="52">
         <v>4</v>
       </c>
       <c r="C15" s="12">
+        <v>740</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="52">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12">
+        <v>450</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="52">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12">
+        <v>450</v>
+      </c>
+      <c r="D17" s="12">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="52">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12">
         <v>2400</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D18" s="12">
         <v>9600</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B19" s="52">
         <v>4</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C19" s="12">
         <v>2400</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D19" s="12">
         <v>9600</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B20" s="52">
         <v>8</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C20" s="12">
         <v>780</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D20" s="12">
         <v>6240</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B21" s="52">
         <v>8</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C21" s="12">
         <v>780</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D21" s="12">
         <v>6240</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="52">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12">
+        <v>27250</v>
+      </c>
+      <c r="D22" s="12">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="52">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12">
+        <v>19800</v>
+      </c>
+      <c r="D23" s="12">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="52">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12">
+        <v>19800</v>
+      </c>
+      <c r="D24" s="12">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="52">
+        <v>8</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1250</v>
+      </c>
+      <c r="D25" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="52">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1250</v>
+      </c>
+      <c r="D26" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="52">
+        <v>10</v>
+      </c>
+      <c r="C27" s="12">
+        <v>6200</v>
+      </c>
+      <c r="D27" s="12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="52">
+        <v>10</v>
+      </c>
+      <c r="C28" s="12">
+        <v>6200</v>
+      </c>
+      <c r="D28" s="12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="52">
-        <v>40</v>
-      </c>
-      <c r="C19" s="12">
-        <v>21770</v>
-      </c>
-      <c r="D19" s="12">
-        <v>93800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="B29" s="52">
+        <v>89</v>
+      </c>
+      <c r="C29" s="12">
+        <v>52120</v>
+      </c>
+      <c r="D29" s="12">
+        <v>345400</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30"/>
@@ -5410,231 +5200,51 @@
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toño\Desktop\Repositorio\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A25D8-BABA-4032-BAD2-B31CEDFE3248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2FEA9-8249-4DA4-9B37-7F1974801C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="5550" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -23,27 +23,18 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="147">
   <si>
     <t>ITEM</t>
   </si>
@@ -481,6 +472,9 @@
   </si>
   <si>
     <t>TRANSCEIVER</t>
+  </si>
+  <si>
+    <t>Suma de CANT.</t>
   </si>
 </sst>
 </file>
@@ -876,25 +870,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -944,202 +920,16 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1449,7 +1239,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45365.39671458333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Toño" refreshedDate="45372.444557870367" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M36" sheet="PEDIDOS"/>
   </cacheSource>
@@ -1510,7 +1300,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="UNID." numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="5">
+        <s v="Unidad"/>
+        <s v="und"/>
+        <s v="Und."/>
+        <s v="Unid"/>
+        <s v="UNID."/>
+      </sharedItems>
     </cacheField>
     <cacheField name="CANT." numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="43"/>
@@ -1594,7 +1390,7 @@
     <n v="497"/>
     <n v="1"/>
     <x v="0"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
@@ -1609,7 +1405,7 @@
     <m/>
     <n v="2"/>
     <x v="1"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="25"/>
     <n v="25"/>
     <x v="0"/>
@@ -1624,7 +1420,7 @@
     <m/>
     <n v="3"/>
     <x v="2"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="25"/>
     <n v="25"/>
     <x v="0"/>
@@ -1639,7 +1435,7 @@
     <m/>
     <n v="4"/>
     <x v="3"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <x v="0"/>
@@ -1654,7 +1450,7 @@
     <m/>
     <n v="5"/>
     <x v="4"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
@@ -1669,7 +1465,7 @@
     <m/>
     <n v="6"/>
     <x v="5"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="15"/>
     <n v="15"/>
     <x v="0"/>
@@ -1684,7 +1480,7 @@
     <m/>
     <n v="7"/>
     <x v="6"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
@@ -1699,7 +1495,7 @@
     <m/>
     <n v="8"/>
     <x v="7"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="2"/>
     <x v="0"/>
@@ -1714,7 +1510,7 @@
     <m/>
     <n v="9"/>
     <x v="8"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
     <x v="0"/>
@@ -1729,7 +1525,7 @@
     <m/>
     <n v="10"/>
     <x v="9"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="6"/>
     <n v="6"/>
     <x v="0"/>
@@ -1744,7 +1540,7 @@
     <m/>
     <n v="11"/>
     <x v="10"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="3"/>
     <x v="0"/>
@@ -1759,7 +1555,7 @@
     <m/>
     <n v="12"/>
     <x v="11"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="24"/>
     <n v="0"/>
     <x v="0"/>
@@ -1774,7 +1570,7 @@
     <m/>
     <n v="13"/>
     <x v="12"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="12"/>
     <x v="0"/>
@@ -1789,7 +1585,7 @@
     <m/>
     <n v="14"/>
     <x v="13"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="26"/>
     <n v="0"/>
     <x v="0"/>
@@ -1804,7 +1600,7 @@
     <m/>
     <n v="15"/>
     <x v="14"/>
-    <s v="Unidad"/>
+    <x v="0"/>
     <n v="26"/>
     <n v="0"/>
     <x v="0"/>
@@ -1819,7 +1615,7 @@
     <m/>
     <n v="1"/>
     <x v="15"/>
-    <s v="und"/>
+    <x v="1"/>
     <n v="7"/>
     <n v="4"/>
     <x v="1"/>
@@ -1834,7 +1630,7 @@
     <m/>
     <n v="2"/>
     <x v="16"/>
-    <s v="und"/>
+    <x v="1"/>
     <n v="7"/>
     <n v="4"/>
     <x v="2"/>
@@ -1849,7 +1645,7 @@
     <m/>
     <n v="3"/>
     <x v="17"/>
-    <s v="und"/>
+    <x v="1"/>
     <n v="24"/>
     <n v="12"/>
     <x v="0"/>
@@ -1864,7 +1660,7 @@
     <m/>
     <n v="4"/>
     <x v="18"/>
-    <s v="und"/>
+    <x v="1"/>
     <n v="7"/>
     <n v="4"/>
     <x v="0"/>
@@ -1879,7 +1675,7 @@
     <m/>
     <n v="5"/>
     <x v="19"/>
-    <s v="und"/>
+    <x v="1"/>
     <n v="14"/>
     <n v="8"/>
     <x v="3"/>
@@ -1894,7 +1690,7 @@
     <m/>
     <n v="6"/>
     <x v="20"/>
-    <s v="und"/>
+    <x v="1"/>
     <n v="7"/>
     <n v="4"/>
     <x v="3"/>
@@ -1909,7 +1705,7 @@
     <m/>
     <n v="7"/>
     <x v="21"/>
-    <s v="und"/>
+    <x v="1"/>
     <n v="7"/>
     <n v="4"/>
     <x v="4"/>
@@ -1924,7 +1720,7 @@
     <m/>
     <n v="1"/>
     <x v="22"/>
-    <s v="Und."/>
+    <x v="2"/>
     <n v="43"/>
     <n v="26"/>
     <x v="2"/>
@@ -1939,7 +1735,7 @@
     <m/>
     <n v="1"/>
     <x v="23"/>
-    <s v="Unid"/>
+    <x v="3"/>
     <n v="8"/>
     <n v="5"/>
     <x v="2"/>
@@ -1954,7 +1750,7 @@
     <m/>
     <n v="2"/>
     <x v="24"/>
-    <s v="Unid"/>
+    <x v="3"/>
     <n v="8"/>
     <n v="8"/>
     <x v="2"/>
@@ -1969,7 +1765,7 @@
     <m/>
     <n v="3"/>
     <x v="25"/>
-    <s v="Unid"/>
+    <x v="3"/>
     <n v="16"/>
     <n v="10"/>
     <x v="2"/>
@@ -1984,7 +1780,7 @@
     <m/>
     <n v="1"/>
     <x v="26"/>
-    <s v="UNID."/>
+    <x v="4"/>
     <n v="6"/>
     <n v="0"/>
     <x v="2"/>
@@ -1999,7 +1795,7 @@
     <m/>
     <n v="1"/>
     <x v="27"/>
-    <s v="UNID."/>
+    <x v="4"/>
     <n v="2"/>
     <n v="0"/>
     <x v="2"/>
@@ -2014,7 +1810,7 @@
     <m/>
     <n v="1"/>
     <x v="28"/>
-    <s v="UNID."/>
+    <x v="4"/>
     <n v="1"/>
     <n v="0"/>
     <x v="2"/>
@@ -2029,7 +1825,7 @@
     <m/>
     <n v="1"/>
     <x v="29"/>
-    <s v="UNID."/>
+    <x v="4"/>
     <n v="13"/>
     <n v="0"/>
     <x v="2"/>
@@ -2044,7 +1840,7 @@
     <m/>
     <n v="2"/>
     <x v="30"/>
-    <s v="UNID."/>
+    <x v="4"/>
     <n v="23"/>
     <n v="0"/>
     <x v="2"/>
@@ -2059,7 +1855,7 @@
     <m/>
     <n v="1"/>
     <x v="31"/>
-    <s v="UNID."/>
+    <x v="4"/>
     <n v="1"/>
     <n v="1"/>
     <x v="2"/>
@@ -2073,8 +1869,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -2129,8 +1925,17 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
@@ -2146,7 +1951,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
     <pivotField numFmtId="4" showAll="0"/>
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
@@ -2229,17 +2034,30 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="3">
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Suma de CANT." fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="91">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2256,7 +2074,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2439,7 +2257,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="46">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2449,7 +2267,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2459,7 +2277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2468,7 +2286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2477,7 +2295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2486,7 +2304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2509,22 +2327,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A4:M41" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="94"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="24">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2831,30 +2649,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}">
   <dimension ref="A2:M41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="7"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="7"/>
-    <col min="7" max="7" width="15.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="74.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="12"/>
-    <col min="12" max="12" width="18.77734375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="7"/>
+    <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="7"/>
+    <col min="7" max="7" width="15.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="74.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="12"/>
+    <col min="12" max="12" width="18.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>106</v>
       </c>
@@ -2895,7 +2713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -2938,7 +2756,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
@@ -2979,7 +2797,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -3020,7 +2838,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>118</v>
       </c>
@@ -3061,7 +2879,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>118</v>
       </c>
@@ -3102,7 +2920,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>118</v>
       </c>
@@ -3143,7 +2961,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>118</v>
       </c>
@@ -3184,7 +3002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>118</v>
       </c>
@@ -3225,7 +3043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>118</v>
       </c>
@@ -3266,7 +3084,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
@@ -3307,7 +3125,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>118</v>
       </c>
@@ -3348,7 +3166,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>118</v>
       </c>
@@ -3389,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>118</v>
       </c>
@@ -3430,7 +3248,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>118</v>
       </c>
@@ -3471,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>118</v>
       </c>
@@ -3512,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>66</v>
       </c>
@@ -3553,7 +3371,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>66</v>
       </c>
@@ -3594,7 +3412,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>66</v>
       </c>
@@ -3635,7 +3453,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>66</v>
       </c>
@@ -3676,7 +3494,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>66</v>
       </c>
@@ -3717,7 +3535,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
@@ -3758,7 +3576,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
@@ -3799,11 +3617,13 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4">
+        <v>1287</v>
+      </c>
       <c r="C27" s="8">
         <v>1</v>
       </c>
@@ -3840,7 +3660,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>69</v>
       </c>
@@ -3881,7 +3701,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>69</v>
       </c>
@@ -3922,7 +3742,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>69</v>
       </c>
@@ -3963,7 +3783,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>78</v>
       </c>
@@ -4004,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>79</v>
       </c>
@@ -4045,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>82</v>
       </c>
@@ -4086,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>85</v>
       </c>
@@ -4127,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>85</v>
       </c>
@@ -4168,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>92</v>
       </c>
@@ -4209,7 +4029,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>124</v>
       </c>
@@ -4250,7 +4070,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>124</v>
       </c>
@@ -4291,7 +4111,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>124</v>
       </c>
@@ -4332,7 +4152,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>124</v>
       </c>
@@ -4373,7 +4193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>124</v>
       </c>
@@ -4427,358 +4247,508 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
-  <dimension ref="A3:B73"/>
+  <dimension ref="A3:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="12">
         <v>8360</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="12">
+        <v>31</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="12">
         <v>8360</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="12">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="12">
         <v>5400</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="12">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="12">
         <v>2960</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="12">
+        <v>7</v>
+      </c>
+      <c r="D7" s="12">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="12">
         <v>261200</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="12">
+        <v>82</v>
+      </c>
+      <c r="D8" s="12">
+        <v>32750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="12">
         <v>80600</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="12">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="12">
         <v>80600</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="12">
+        <v>43</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="12">
         <v>9600</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="12">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="12">
         <v>9600</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="12">
         <v>171000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="12">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12">
+        <v>27250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="12">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="12">
         <v>99000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="12">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="12">
         <v>62000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="12">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="12">
         <v>14640</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="12">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="12">
         <v>14640</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="12">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="12">
         <v>6240</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="12">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="12">
         <v>8400</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="12">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="12">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="12">
+        <v>7</v>
+      </c>
+      <c r="D22" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="12">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B24" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="12">
+        <v>7</v>
+      </c>
+      <c r="D24" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="12">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="12">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="12">
         <v>345400</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="12">
+        <v>148</v>
+      </c>
+      <c r="D27" s="12">
+        <v>52120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
   </sheetData>
@@ -4794,20 +4764,20 @@
   </sheetPr>
   <dimension ref="A3:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>119</v>
       </c>
@@ -4821,7 +4791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>67</v>
       </c>
@@ -4835,7 +4805,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>97</v>
       </c>
@@ -4849,7 +4819,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>108</v>
       </c>
@@ -4863,7 +4833,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
@@ -4877,7 +4847,7 @@
         <v>93800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>65</v>
       </c>
@@ -4891,7 +4861,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>112</v>
       </c>
@@ -4905,7 +4875,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>62</v>
       </c>
@@ -4919,7 +4889,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>111</v>
       </c>
@@ -4933,7 +4903,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>54</v>
       </c>
@@ -4947,7 +4917,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>107</v>
       </c>
@@ -4961,7 +4931,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>60</v>
       </c>
@@ -4975,7 +4945,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>109</v>
       </c>
@@ -4989,7 +4959,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>58</v>
       </c>
@@ -5003,7 +4973,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>109</v>
       </c>
@@ -5017,7 +4987,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>55</v>
       </c>
@@ -5031,7 +5001,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>108</v>
       </c>
@@ -5045,7 +5015,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>110</v>
       </c>
@@ -5059,7 +5029,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>111</v>
       </c>
@@ -5073,7 +5043,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>69</v>
       </c>
@@ -5087,7 +5057,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>74</v>
       </c>
@@ -5101,7 +5071,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>108</v>
       </c>
@@ -5115,7 +5085,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>143</v>
       </c>
@@ -5129,7 +5099,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
@@ -5143,7 +5113,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>145</v>
       </c>
@@ -5157,7 +5127,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>108</v>
       </c>
@@ -5171,7 +5141,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>120</v>
       </c>
@@ -5185,66 +5155,66 @@
         <v>345400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC-PALACIO\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A25D8-BABA-4032-BAD2-B31CEDFE3248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AB2A4B-166C-4FC4-AA1D-09C62280482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
   <si>
     <t>ITEM</t>
   </si>
@@ -876,43 +876,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -944,202 +908,16 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1449,7 +1227,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45365.39671458333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45372.631771527776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M36" sheet="PEDIDOS"/>
   </cacheSource>
@@ -2073,8 +1851,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -2146,7 +1924,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
     <pivotField numFmtId="4" showAll="0"/>
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
@@ -2229,17 +2007,26 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="91">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2256,7 +2043,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2439,7 +2226,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="46">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2449,7 +2236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2459,7 +2246,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2468,7 +2255,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2477,7 +2264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2486,7 +2273,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2509,22 +2296,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A4:M41" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="94"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="18">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2835,26 +2622,26 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="7"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="7"/>
-    <col min="7" max="7" width="15.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="74.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="12"/>
-    <col min="12" max="12" width="18.77734375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="7"/>
+    <col min="4" max="4" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="7"/>
+    <col min="7" max="7" width="15.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="74.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="12"/>
+    <col min="12" max="12" width="18.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>106</v>
       </c>
@@ -2895,7 +2682,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -2938,7 +2725,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
@@ -2979,7 +2766,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -3020,7 +2807,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>118</v>
       </c>
@@ -3061,7 +2848,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>118</v>
       </c>
@@ -3102,7 +2889,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>118</v>
       </c>
@@ -3143,7 +2930,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>118</v>
       </c>
@@ -3184,7 +2971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>118</v>
       </c>
@@ -3225,7 +3012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>118</v>
       </c>
@@ -3266,7 +3053,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
@@ -3307,7 +3094,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>118</v>
       </c>
@@ -3348,7 +3135,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>118</v>
       </c>
@@ -3389,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>118</v>
       </c>
@@ -3430,7 +3217,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>118</v>
       </c>
@@ -3471,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>118</v>
       </c>
@@ -3512,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>66</v>
       </c>
@@ -3553,7 +3340,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>66</v>
       </c>
@@ -3594,7 +3381,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>66</v>
       </c>
@@ -3635,7 +3422,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>66</v>
       </c>
@@ -3676,7 +3463,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>66</v>
       </c>
@@ -3717,7 +3504,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
@@ -3758,7 +3545,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
@@ -3799,7 +3586,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>67</v>
       </c>
@@ -3840,7 +3627,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>69</v>
       </c>
@@ -3881,7 +3668,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>69</v>
       </c>
@@ -3922,7 +3709,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>69</v>
       </c>
@@ -3963,7 +3750,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>78</v>
       </c>
@@ -4004,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>79</v>
       </c>
@@ -4045,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>82</v>
       </c>
@@ -4086,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>85</v>
       </c>
@@ -4127,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>85</v>
       </c>
@@ -4168,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>92</v>
       </c>
@@ -4209,7 +3996,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>124</v>
       </c>
@@ -4250,7 +4037,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>124</v>
       </c>
@@ -4291,7 +4078,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>124</v>
       </c>
@@ -4332,7 +4119,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>124</v>
       </c>
@@ -4373,7 +4160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>124</v>
       </c>
@@ -4427,358 +4214,433 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
-  <dimension ref="A3:B73"/>
+  <dimension ref="A3:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="12">
         <v>8360</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="12">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="12">
         <v>8360</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="12">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="12">
         <v>5400</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="12">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="12">
         <v>2960</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="12">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="12">
         <v>261200</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="12">
+        <v>32750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="12">
         <v>80600</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="12">
         <v>80600</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="12">
         <v>9600</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="12">
         <v>9600</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="12">
         <v>171000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="12">
+        <v>27250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="12">
         <v>99000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="12">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="12">
         <v>62000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="12">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="12">
         <v>14640</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="12">
         <v>14640</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="12">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="12">
         <v>6240</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="12">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="12">
         <v>8400</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="12">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B24" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="12">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="12">
         <v>345400</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="12">
+        <v>52120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73"/>
     </row>
   </sheetData>
@@ -4798,16 +4660,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>119</v>
       </c>
@@ -4821,7 +4683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>67</v>
       </c>
@@ -4835,7 +4697,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>97</v>
       </c>
@@ -4849,7 +4711,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>108</v>
       </c>
@@ -4863,7 +4725,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
@@ -4877,7 +4739,7 @@
         <v>93800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>65</v>
       </c>
@@ -4891,7 +4753,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>112</v>
       </c>
@@ -4905,7 +4767,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>62</v>
       </c>
@@ -4919,7 +4781,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>111</v>
       </c>
@@ -4933,7 +4795,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>54</v>
       </c>
@@ -4947,7 +4809,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>107</v>
       </c>
@@ -4961,7 +4823,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>60</v>
       </c>
@@ -4975,7 +4837,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>109</v>
       </c>
@@ -4989,7 +4851,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>58</v>
       </c>
@@ -5003,7 +4865,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>109</v>
       </c>
@@ -5017,7 +4879,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>55</v>
       </c>
@@ -5031,7 +4893,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>108</v>
       </c>
@@ -5045,7 +4907,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>110</v>
       </c>
@@ -5059,7 +4921,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>111</v>
       </c>
@@ -5073,7 +4935,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>69</v>
       </c>
@@ -5087,7 +4949,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>74</v>
       </c>
@@ -5101,7 +4963,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>108</v>
       </c>
@@ -5115,7 +4977,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>143</v>
       </c>
@@ -5129,7 +4991,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
@@ -5143,7 +5005,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>145</v>
       </c>
@@ -5157,7 +5019,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>108</v>
       </c>
@@ -5171,7 +5033,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>120</v>
       </c>
@@ -5185,66 +5047,66 @@
         <v>345400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>

--- a/pedidos codigo.xlsx
+++ b/pedidos codigo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\TIC MUNI\TIC-PALACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A25D8-BABA-4032-BAD2-B31CEDFE3248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F18E919-C639-461C-AA8A-FF4DCC9FDD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
+    <workbookView xWindow="-110" yWindow="0" windowWidth="17170" windowHeight="8890" activeTab="2" xr2:uid="{E729F0F4-29FD-4897-90C6-B0CF87D2822B}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDIDOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="148">
   <si>
     <t>ITEM</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t>TRANSCEIVER</t>
+  </si>
+  <si>
+    <t>Suma de CANT.</t>
+  </si>
+  <si>
+    <t>Suma de TOTAL</t>
   </si>
 </sst>
 </file>
@@ -876,49 +882,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -944,202 +908,16 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1449,7 +1227,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45365.39671458333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Manuel Raul Livano Luna" refreshedDate="45373.38172326389" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{F06AE135-DB27-4FEE-AFA7-C9FE2B6B38FC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A4:M36" sheet="PEDIDOS"/>
   </cacheSource>
@@ -2073,8 +1851,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1C7061-5B04-488C-AA6F-DD8265F80CF9}" name="TablaDinámica6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -2130,7 +1908,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
@@ -2146,8 +1924,8 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
-    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
   </pivotFields>
   <rowFields count="3">
@@ -2229,17 +2007,34 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="4">
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
+    <dataField name="Suma de PU" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Suma de CANT." fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de TOTAL" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="91">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2256,7 +2051,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9B0191C-9059-418F-89ED-60BABC3425BC}" name="TablaDinámica5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -2439,7 +2234,7 @@
     <dataField name="Suma de TOTAL PEDIDO" fld="12" baseField="0" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="46">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -2449,7 +2244,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2459,7 +2254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2468,7 +2263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2477,7 +2272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2486,7 +2281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2509,22 +2304,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0562A0-4F45-47E2-856F-BEEEE10F98B5}" name="TablaOrigen" displayName="TablaOrigen" ref="A4:M41" totalsRowShown="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A4:M41" xr:uid="{2924DB98-023D-4F8F-AACD-53C3E65B6B87}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="94"/>
-    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="93"/>
-    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{58162D42-B151-48A7-9AAF-4BF7DF1BDD3F}" name="PEDIDO" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{69EDFBB4-2170-4340-84B5-2A4ED278F1CC}" name="PEDIDO N°" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{74D9F8BA-6B18-4DA3-A2E0-7105921F7D74}" name="ITEM" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{5D69AE9B-37FD-40E8-8188-94A20F8908C2}" name="MATERIALES" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{C8DF9C9B-CE76-4AFA-82DF-EC10813645AA}" name="UNID." dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{64C2BCB5-5BE3-4CEB-9935-6B6DA017DC84}" name="CANT." dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{5AB2974A-B84E-4FD2-9726-BDFB629E7696}" name="CANT. PED" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{CC13FA92-7415-4045-A680-04965DBA0260}" name="CLASIFICADOR" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{02089E0A-BAD6-4038-8760-6ADFD464D508}" name="ITEM SIGA" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{17BEE41A-4F14-4F5A-A9AF-36525A324BD1}" name="DESCRIPCION" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{37A4B2BF-22FF-443D-8E09-CA3FC67D4DBA}" name="PU" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{6FD8CB47-D1BF-44F7-A709-72F014292494}" name="TOTAL" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{8F77E205-2595-4CBA-ADC3-8FFF824B903C}" name="TOTAL PEDIDO" dataDxfId="16">
       <calculatedColumnFormula>K5*G5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2835,26 +2630,26 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="7"/>
-    <col min="4" max="4" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="7"/>
-    <col min="7" max="7" width="15.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="74.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="12"/>
-    <col min="12" max="12" width="18.77734375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="7"/>
+    <col min="4" max="4" width="51.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.54296875" style="7"/>
+    <col min="7" max="7" width="15.54296875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="74.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="12"/>
+    <col min="12" max="12" width="18.81640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D2" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>106</v>
       </c>
@@ -2895,7 +2690,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
@@ -2938,7 +2733,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>118</v>
       </c>
@@ -2979,7 +2774,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>118</v>
       </c>
@@ -3020,7 +2815,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>118</v>
       </c>
@@ -3061,7 +2856,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>118</v>
       </c>
@@ -3102,7 +2897,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>118</v>
       </c>
@@ -3143,7 +2938,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>118</v>
       </c>
@@ -3184,7 +2979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>118</v>
       </c>
@@ -3225,7 +3020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>118</v>
       </c>
@@ -3266,7 +3061,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
@@ -3307,7 +3102,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>118</v>
       </c>
@@ -3348,7 +3143,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>118</v>
       </c>
@@ -3389,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>118</v>
       </c>
@@ -3430,7 +3225,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>118</v>
       </c>
@@ -3471,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>118</v>
       </c>
@@ -3512,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="s">
         <v>66</v>
       </c>
@@ -3553,7 +3348,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>66</v>
       </c>
@@ -3594,7 +3389,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
         <v>66</v>
       </c>
@@ -3635,7 +3430,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>66</v>
       </c>
@@ -3676,7 +3471,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
         <v>66</v>
       </c>
@@ -3717,7 +3512,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
@@ -3758,7 +3553,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
@@ -3799,7 +3594,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>67</v>
       </c>
@@ -3840,7 +3635,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>69</v>
       </c>
@@ -3881,7 +3676,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>69</v>
       </c>
@@ -3922,7 +3717,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>69</v>
       </c>
@@ -3963,7 +3758,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
         <v>78</v>
       </c>
@@ -4004,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>79</v>
       </c>
@@ -4045,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
         <v>82</v>
       </c>
@@ -4086,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="34" t="s">
         <v>85</v>
       </c>
@@ -4127,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
         <v>85</v>
       </c>
@@ -4168,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
         <v>92</v>
       </c>
@@ -4209,7 +4004,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
         <v>124</v>
       </c>
@@ -4250,7 +4045,7 @@
         <v>5250</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
         <v>124</v>
       </c>
@@ -4291,7 +4086,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
         <v>124</v>
       </c>
@@ -4332,7 +4127,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="45" t="s">
         <v>124</v>
       </c>
@@ -4373,7 +4168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="45" t="s">
         <v>124</v>
       </c>
@@ -4427,358 +4222,584 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9690CBC5-E6E4-48D7-ACE7-7E9A17BE188F}">
-  <dimension ref="A3:B73"/>
+  <dimension ref="A3:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="31" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="12">
         <v>8360</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="12">
+        <v>1190</v>
+      </c>
+      <c r="D4" s="12">
+        <v>31</v>
+      </c>
+      <c r="E4" s="12">
+        <v>15980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="12">
         <v>8360</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="12">
+        <v>1190</v>
+      </c>
+      <c r="D5" s="12">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12">
+        <v>15980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="12">
         <v>5400</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="12">
+        <v>450</v>
+      </c>
+      <c r="D6" s="12">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="12">
         <v>2960</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="12">
+        <v>740</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="12">
         <v>261200</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="12">
+        <v>32750</v>
+      </c>
+      <c r="D8" s="12">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12">
+        <v>417700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="12">
         <v>80600</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="12">
+        <v>3100</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43</v>
+      </c>
+      <c r="E9" s="12">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="12">
         <v>80600</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="12">
+        <v>3100</v>
+      </c>
+      <c r="D10" s="12">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="12">
         <v>9600</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="12">
+        <v>2400</v>
+      </c>
+      <c r="D11" s="12">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="12">
         <v>9600</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="12">
+        <v>2400</v>
+      </c>
+      <c r="D12" s="12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="12">
         <v>171000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="12">
+        <v>27250</v>
+      </c>
+      <c r="D13" s="12">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12">
+        <v>267600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="12">
+        <v>1250</v>
+      </c>
+      <c r="D14" s="12">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="12">
         <v>99000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="12">
+        <v>19800</v>
+      </c>
+      <c r="D15" s="12">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12">
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="12">
         <v>62000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="12">
+        <v>6200</v>
+      </c>
+      <c r="D16" s="12">
+        <v>16</v>
+      </c>
+      <c r="E16" s="12">
+        <v>99200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B17" s="12">
         <v>14640</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="12">
+        <v>2880</v>
+      </c>
+      <c r="D17" s="12">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12">
+        <v>25620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="12">
         <v>14640</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="12">
+        <v>2880</v>
+      </c>
+      <c r="D18" s="12">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12">
+        <v>25620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="12">
         <v>6240</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="12">
+        <v>780</v>
+      </c>
+      <c r="D19" s="12">
+        <v>14</v>
+      </c>
+      <c r="E19" s="12">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="12">
         <v>8400</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="12">
+        <v>2100</v>
+      </c>
+      <c r="D20" s="12">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="12">
+        <v>7100</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7</v>
+      </c>
+      <c r="E21" s="12">
+        <v>49700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="12">
+        <v>7100</v>
+      </c>
+      <c r="D22" s="12">
+        <v>7</v>
+      </c>
+      <c r="E22" s="12">
+        <v>49700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="12">
         <v>28400</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="12">
+        <v>7100</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12">
+        <v>49700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B24" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="12">
+        <v>8200</v>
+      </c>
+      <c r="D24" s="12">
+        <v>7</v>
+      </c>
+      <c r="E24" s="12">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="12">
+        <v>8200</v>
+      </c>
+      <c r="D25" s="12">
+        <v>7</v>
+      </c>
+      <c r="E25" s="12">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="12">
         <v>32800</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="12">
+        <v>8200</v>
+      </c>
+      <c r="D26" s="12">
+        <v>7</v>
+      </c>
+      <c r="E26" s="12">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="12">
         <v>345400</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="12">
+        <v>52120</v>
+      </c>
+      <c r="D27" s="12">
+        <v>148</v>
+      </c>
+      <c r="E27" s="12">
+        <v>566400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73"/>
     </row>
   </sheetData>
@@ -4794,20 +4815,20 @@
   </sheetPr>
   <dimension ref="A3:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>119</v>
       </c>
@@ -4821,7 +4842,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>67</v>
       </c>
@@ -4835,7 +4856,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>97</v>
       </c>
@@ -4849,7 +4870,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>108</v>
       </c>
@@ -4863,7 +4884,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
@@ -4877,7 +4898,7 @@
         <v>93800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>65</v>
       </c>
@@ -4891,7 +4912,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>112</v>
       </c>
@@ -4905,7 +4926,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>62</v>
       </c>
@@ -4919,7 +4940,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>111</v>
       </c>
@@ -4933,7 +4954,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>54</v>
       </c>
@@ -4947,7 +4968,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>107</v>
       </c>
@@ -4961,7 +4982,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>60</v>
       </c>
@@ -4975,7 +4996,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>109</v>
       </c>
@@ -4989,7 +5010,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>58</v>
       </c>
@@ -5003,7 +5024,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>109</v>
       </c>
@@ -5017,7 +5038,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>55</v>
       </c>
@@ -5031,7 +5052,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>108</v>
       </c>
@@ -5045,7 +5066,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>110</v>
       </c>
@@ -5059,7 +5080,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>111</v>
       </c>
@@ -5073,7 +5094,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>69</v>
       </c>
@@ -5087,7 +5108,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>74</v>
       </c>
@@ -5101,7 +5122,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>108</v>
       </c>
@@ -5115,7 +5136,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>143</v>
       </c>
@@ -5129,7 +5150,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>108</v>
       </c>
@@ -5143,7 +5164,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>145</v>
       </c>
@@ -5157,7 +5178,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>108</v>
       </c>
@@ -5171,7 +5192,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
         <v>120</v>
       </c>
@@ -5185,66 +5206,66 @@
         <v>345400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
